--- a/django_app/pls/temp/振動.xlsx
+++ b/django_app/pls/temp/振動.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,442 +557,10 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>振動・騒音の今後の課題と展望</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jime1966/31/8/31_8_525/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">日本舶用機関学会誌 </t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>1996年</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>31 巻, 8 号, 525-528</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1996/06/01</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2010/05/31</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="100" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>不規則振動研究分科会報告(分科会報告No.117)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jsmemag/70/582/70_KJ00003073182/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">日本機械学会誌 </t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>1967年</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>70 巻, 582 号, 1058-1065</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1967/07/05</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2017/06/21</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="100" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>振動衝撃試験法に関する調査報告</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/78/839/78_839_1113/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">電氣學會雜誌 </t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>1958年</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>78 巻, 839 号, 1113-1115</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1958/08/01</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2008/04/17</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="100" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>ISOポンプ振動評価基準に関する検討結果の報告 (第2報)</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/tsj1973/25/4/25_4_216/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ターボ機械 </t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>1997年</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>25 巻, 4 号, 216-221</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1997/04/10</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2011/07/11</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>ISOポンプ振動評価基準に関する検討結果報告</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/tsj1973/24/2/24_2_104/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ターボ機械 </t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>1996年</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>24 巻, 2 号, 104-110</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1996/02/10</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2011/07/11</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>熱音響自励振動研究会の発足について</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jcsj1966/36/4/36_4_219/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">低温工学 </t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>36 巻, 4 号, 219</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 2001/04/25</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2010/02/26</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>3.各種振動試験機の紹介と動向</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jime1966/20/10/20_10_671/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">日本舶用機関学会誌 </t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>1985年</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>20 巻, 10 号, 671-674</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1985/10/01</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2010/05/31</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>009</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>加振力がわからなくても振動応答を予測できる手法の提案</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jsmecs/2019.57/0/2019.57_SS13/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>2019.57 巻, SS13</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 2019年</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2019/09/25</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>機械振動・衝撃用語分科会報告</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>https://www.jstage.jst.go.jp/article/jsmemag/75/637/75_KJ00003078050/_article/-char/ja</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">日本機械学会誌 </t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>1972年</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>75 巻, 637 号, 282-293</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>発行日: 1972年</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>公開日: 2017/06/21</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>要約なし</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/django_app/pls/temp/振動.xlsx
+++ b/django_app/pls/temp/振動.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,10 +557,4762 @@
         </is>
       </c>
     </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>振動・騒音の今後の課題と展望</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jime1966/31/8/31_8_525/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本舶用機関学会誌 </t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>1996年</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>31 巻, 8 号, 525-528</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1996/06/01</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/05/31</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="100" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>不規則振動研究分科会報告(分科会報告No.117)</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/70/582/70_KJ00003073182/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>1967年</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>70 巻, 582 号, 1058-1065</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1967/07/05</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="100" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>振動衝撃試験法に関する調査報告</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/78/839/78_839_1113/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>1958年</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>78 巻, 839 号, 1113-1115</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1958/08/01</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/17</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="100" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>ISOポンプ振動評価基準に関する検討結果の報告 (第2報)</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/tsj1973/25/4/25_4_216/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ターボ機械 </t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>1997年</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>25 巻, 4 号, 216-221</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1997/04/10</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2011/07/11</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>ISOポンプ振動評価基準に関する検討結果報告</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/tsj1973/24/2/24_2_104/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ターボ機械 </t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>1996年</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>24 巻, 2 号, 104-110</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1996/02/10</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2011/07/11</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="100" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>熱音響自励振動研究会の発足について</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jcsj1966/36/4/36_4_219/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">低温工学 </t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>2001年</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>36 巻, 4 号, 219</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2001/04/25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/02/26</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="100" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>3.各種振動試験機の紹介と動向</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jime1966/20/10/20_10_671/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本舶用機関学会誌 </t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>1985年</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>20 巻, 10 号, 671-674</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1985/10/01</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/05/31</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="100" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>加振力がわからなくても振動応答を予測できる手法の提案</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2019.57/0/2019.57_SS13/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2019.57 巻, SS13</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2019年</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2019/09/25</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="100" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>機械振動・衝撃用語分科会報告</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/75/637/75_KJ00003078050/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>1972年</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>75 巻, 637 号, 282-293</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1972年</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="100" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>振動切削の理論を応用した歯科治療</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jjspe1986/69/5/69_5_617/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">精密工学会誌 </t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>2003年</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>69 巻, 5 号, 617-621</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2003/05/05</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2009/04/10</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="100" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>高速回転体に関するアンケートの結果</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/71/599/71_KJ00003074897/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>1968年</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>71 巻, 599 号, 1631-1632</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1968/12/05</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>振動・衝撃試験法実情調査結果</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/64/514/64_KJ00001466437/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>1961年</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>64 巻, 514 号, 1624-1629</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1961/11/05</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>PC斜張橋ケーブルの風による振動とその対策</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/coj1975/32/5/32_23/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学 </t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>1994年</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>32 巻, 5 号, 23-30</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1994/05/01</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/04/26</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>斜張橋の長径間化に伴うケーブルの長大化やポリエチレン管被覆ケーブルの一般化およびダブルケーブル方式の増加とともに, 鋼斜張橋のみならず最近ではPC斜張橋においてもレインバイブレーションやウェイクギャロッピングと呼ばれる風によるケーブル自身の振動が大きな問題として取り上げられている。そこで, 本稿では, 斜張橋ケーブルの風による振動について概説したのち, 主にPC斜張橋におけるケーブル制振対策事例について紹介する。また, PC斜張橋ケーブルの制振に関する残された課題と今後の展望についても報告する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="100" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>日本工業規格(案)機械振動・衝撃用語分科会報告</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/77/672/77_KJ00001467386/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>1974年</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>77 巻, 672 号, 1157-1158</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1974年</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="100" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>自動車振動問題研究会報告</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/74/632/74_KJ00003077508/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>1971年</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>74 巻, 632 号, 1113-1116</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1971年</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="100" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>ガスタービン開発における実験計測技術(&lt;特集&gt;発電用ガスタービン技術の変遷と将来展望)</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/119/1173/119_466/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>119 巻, 1173 号, 466-469</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2016/08/05</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/09/15</t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="100" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>2108 打ち込まれるくいの断面積と打撃歪との関係(PCくいの場合)(構造)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxxe/42/0/42_KJ00005417433/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築学会論文報告集・号外・臨時増刊　学術講演要旨集 </t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>1967年</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>42 巻, 252-</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1967年</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/08/30</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="100" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>019</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>評論(2)(超大片持床構造の振動性状に関する研究)</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijt/2/3/2_KJ00003285432/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築学会技術報告集 </t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>1996年</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>2 巻, 3 号, 58-</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1996/12/20</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/01/25</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="100" customHeight="1">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>マグネトロン振動に就て</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/52/527/52_527_478/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>1932年</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>52 巻, 527 号, 478-485</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1932/06/10</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>マゲネトロンに依つて發生出來る超短波長電氣振動には,其の波長が外部回路に無關係なもの(A振動)と,然らざるもの(B振動)との二種類ある。本文には最初に著者の一人が以前に發表した假説を發展せしめた所のA振動に對する新しい理論が述べてあり,次にB振動に就て論及してある。其の次に,A振動及びB振動の發生に對して適當な眞空管だとか,兩振動の特性だとか或ひは兩振動の關係だとか等に就て述べてあり,從來不明又は曖昧であつた點が或る程度迄明かにしてある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="100" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>加振力を用いない構造変更後の直接応答予測</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2018.56/0/2018.56_1005/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>2018.56 巻, 1005</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2018年</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2018/09/25</t>
+        </is>
+      </c>
+      <c r="I22" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="100" customHeight="1">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>タービン發電機軸系統の強制的捩れ振動と其の非共振軸の考察</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/58/594/58_594_46/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>1938年</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>58 巻, 594 号, 46-49</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1938/01/10</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t>タービン發電機は其の使用状態に於て各種の強制振動を受け,次第に平衡状態の劣化を來す事が多い。之等強制振動中捩れ振動に對して,タービン發電機を電氣的及び機械的に見れば複雜なる振動體系を爲す。筆者は斯樣な振動體系に於て,實際上最も發生の機會の多い,短絡地絡其の他の電氣的強制振動を生じた時の,共振現象並に之に對する非共振軸の設計に關する理論的研究を行つた。非共振軸の設計に對して必要なる事項は,振動體系の自然振動數の決定及び修正を行ふために,軸の設計要素と自然振動數との關係を求める事であるが,振動體系が複雜になると,自然振動數を決定する式の次數が高くなつて一般的解法は困難になるが,之に關して筆者は,特定の自然振動數に對して,之に最も影響の多い振動恆數との間の關係式を求め,此の式と正規の方法に依る自然振動數が實例の計算に於て,其の差異が極めて少き事を明かにし,非共振軸の設計に一指針を與へた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="100" customHeight="1">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>サイディングによる振動子の振動特性の改善に関する研究</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/isj/59/1/59_28/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本画像学会誌 </t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>59 巻, 1 号, 28-32</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2020/02/10</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2020/02/10</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>Rayleighは剛体バッフルを有する剛体円板の振動がピストン振動するという仮定のもとに円板表面が一様な速度に振動するというピストン音源の理論を示している．超音波の送受波に用いられているセラミック等の圧電振動子は弾性体であるため，圧電振動子を厚み方向に駆動した際にはその弾性的結合により横方向にも振動する．これは圧電振動子に取り付けられた電極の端部から発生する振動が振動子表面を伝搬し，振動子の音響表面に分布するためで，厚み方向に一様に振動しない．本報告は振動子の音響放射面を一様に振動させるために新たに振動子の側面に音響負荷を付与する“サイディング”を行った．サイディングの効果を検証するためにレーザドップラ振動計を用いて振動子の音響放射面の振動速度分布を測定した．この結果サイディングによって音響放射面の速度分布は平坦であること明らかにした．また，同条件で水中に駆動させて，放射した超音波のシュリーレン画像を得た．その結果波面は一様で，不要輻射がほぼ生じないことを明らかにした．</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="100" customHeight="1">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>コンクリート振動機の知識</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/coj1975/33/8/33_26/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学 </t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>1995年</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>33 巻, 8 号, 26-34</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1995/08/01</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/04/26</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t>内部振動機および振動台を用いてコンクリートの振動締固め実験を行う際の必要な知識について述べている。すなわち, コンクリートの応答振動および締固め度を推定するために必要な内部振動機の軸に沿う加速度分布, 振動波の伝播過程における減衰, 締固め関数が示されており, また振動台の使用上の注意事項, 鉛直振動と水平振動との関係も検討されている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="100" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>振動が牛の精蟲生存時間に及ぼす影響に就て(前報)</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/chikusan1924/12/0/12_0_20/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本畜産学会報 </t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>1939年</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>12 巻, 20-29</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1939年</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/03/10</t>
+        </is>
+      </c>
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t>12囘の實驗例に於て振動時間3例は3時間9例は5時間で,振動數は1分間160-170乃至400-420迄行つたのであるが本實驗の範圍内では(1) 振動時間と精蟲生存時間が反比例する様な明かな傾向は認め得なかつた。又振動囘數では反比例する傾向が窺はれたが何れも尚實驗例を加へなければ確固としたことは認められない。(2) 振動期間中の保存温度と生存時間との關係に就ては9,10,11の各例で夫々25°C,30°C,25°Cに保温して振動を與へ振動後は10°Cの定温器に納め觀察したのであるが,著しい短縮は認められなかつた。勿論對照も振動期間中は同温度に保存し振動後も同様10°Cに保存したのである。然し振動,對照兩方共,常に10°Cに保存した他の各例に比較すれば幾分生存時間の短縮が認められた。(3) 本實驗では水平振動は垂直振動より強く作用するであらうといふ著者等の豫想に反し其の差異は明瞭に認められなかつた。又短時間振動(3時間)では振動直後精蟲は反つて對照より活〓な運動をして居るのを認めたが5時間振動では常に對照より弱くなよつて居た。(4) 對照を100とすれば水平,垂直振動の生存時間比は略70-90%であつて著者等の豫想した程生存時間に悪影響がないことを知つた。末田氏の報告に依れば氏は牛の副〓丸より得た材料で振動數1分間140,振幅2cm,保存温度室温,振動時間30分,1時間,2時間,3時間,5時間の5例を行つて居るが,對照を100とすれば30分振動では水平44,垂直50,1時間では殆んど30分同様,2時間,3時間では水平62,垂直87,5時間振動では殆んど零である。對照の生存時間は16時間15分である。之を要するに直腸マツサーヂ法に依つて採取した牛の精液を材料として振幅2cm,振動數1分間160-420,振動時間3-5時間,保存温度10°C-27°C,振動温度10-30°Cの諸條件の下に行つた實驗に於て,此の程度(精液は試驗管内で泡立つて居る)の振動では著者等の豫想した程悪影響はないもので換言すれば牛の精蟲は振動に對して相當に抵抗力のあることが略判明した。然し實驗例が少い爲本實驗の結果を以て直ちに結論を下すことは尚早である。引續き温度,振動と精蟲の生存時間及之等と受胎力の關係に就て研究を進める考へである。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="100" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>026</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>17) 某工場高棟の振動觀測並びにその振動防止に關する研究</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxxx/38/0/38_KJ00004403037/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築學會論文集 </t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>1949年</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>38 巻, 56-62</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1949/04/20</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/12/04</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t>コンプレッサーの運轉に伴つて,異状な振動を續けてゐる某工場高棟(550m^2)の振動を觀測し綿密な振動解析で分析し,この振動はコンプレッサーの振動に,地盤の振動と高棟の2次振動とが共振を起した爲に起つた極めて珍らしい現象であるものと判斷した。この振動は高棟屋根面で振幅12mmにも及び建物が大部弱つてをり,又耐震的にも弱いので建物を補剛して固有振動週期を縮め共振からはづす事にした。改修案數種を考え,その強制振動を解析して,簡易な方法既ち高棟デッキ下に斷面積87cm^2の鋼材筋違一本を置くだけで充分なことを知つた。その後この案で工事を實施したが結果は極めてよく,これまでの振動を完全に止める事が出來た。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="100" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>027</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>直流コロナ放電に依つて誘起される導線の機械的振動</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/53/539/53_539_426/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>1933年</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>53 巻, 539 号, 426-435</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1933/06/10</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t>題記の現象に就て系統的研究を行ひ,振動の原因及び機構に觸れた。線の運動は電壓の上昇に從ひ「平面振動→橢圓回韓→圓回榑」なる遷移をなし,原振動の外に多くの高調波振動が確立する。コロナ放電に依る導線の振動は,導線の自由振動に極めて近く,イオン[主として(-)イオン]の運動に依つて誘起されることを確めた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="100" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>028</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>高速回転体振動問題研究会報告</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/73/623/73_KJ00003076668/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>1970年</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>73 巻, 623 号, 1602-1603</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1970/12/05</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="100" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>029</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>振動刺激が筋緊張に及ぼす影響</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2012/0/2012_48101242/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>2012 巻, F-P-03</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2013年</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/06/20</t>
+        </is>
+      </c>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>【はじめに、目的】骨格筋への振動刺激は脊髄内の介在神経細胞を活性化し，シナプス前抑制により筋緊張を抑制する事が知られている．シナプス前抑制機能は，痙縮と深く関与している事が示唆されており，条件刺激と試験刺激を異なる筋に対して実施する方法により検討されている．しかし，振動刺激における筋緊張抑制効果において，条件刺激と試験刺激を異なる筋に対して実施した報告は少ない．また，この条件において，異なる振動周波数を用いて筋緊張に及ぼす影響を検証した報告はない．本研究の目的は，膝蓋腱や大腿二頭筋腱に異なる周波数の振動刺激を負荷し，同側ヒラメ筋のH波に及ぼす影響を明らかにする事である．【方法】対象は下肢に神経障害の既往のない健常成人男性42名であり，被験筋はヒラメ筋とした．すべての対象者には膝蓋腱と大腿二頭筋腱に振動刺激（80Hz,100Hz,120Hz）を負荷する2条件を設定し，誘発筋電図（日本光電社製）を用いて，安静時と振動刺激中，振動刺激直後，振動刺激終了5分後のH波とM波の最大振幅比を算出した．振動刺激装置には，旭製作所製WaveMakerを使用した．本研究における統計処理には,統計解析ソフトウェアSPSS18を使用した.各条件内における時間経過の検討として,反復測定一元配置分散分析を行った．尚,有意水準は5%未満とした.【倫理的配慮、説明と同意】ヘルシンキ宣言に則り本研究を実施した．研究に先立ち，所属機関の倫理委員会において承認を得た．全ての対象者には事前に本研究の内容やリスク，参加の自由などの倫理的配慮について口頭および文書で説明し，書面にて同意を得た．【結果】膝蓋腱への振動刺激では，80Hzの周波数において，振動刺激中の最大振幅比が，その他の値と比べ有意に低値を示した．100Hzの周波数においては，振動刺激中の最大振幅比が安静時と比べ有意に低値を示した．また，振動刺激直後は振動刺激5分後よりも有意に低値を示した．120Hzの周波数においては，振動刺激中の最大振幅比が，振動刺激直後と振動刺激5分後と比べ有意に低値を示した．大腿二頭筋腱への振動刺激では，80Hzの周波数において，どの間に関しても有意差は認められなかった．100Hzの周波数においては，振動刺激中の最大振幅比は振動刺激直後と振動刺激5分後において有意に低値を示した．また，振動刺激直後の最大振幅比が振動刺激5分後の最大振幅比と比べ有意に低値を示した．120Hzの周波数においては，安静時と比べ振動刺激中と振動刺激直後で有意に低値を示し，振動刺激中は，安静時と振動刺激5分後と比べ有意に低値を示した．また，振動刺激直後は，安静時と振動刺激5分後と比べ，有意に低値を示した．【考察】今回，条件刺激と試験刺激を異なる筋に負荷し，膝蓋腱や大腿二頭筋腱といった異名筋への異なる周波数の振動刺激が，ヒラメ筋H波に及ぼす影響を検証した．本研究では，膝蓋腱への100Hz以上の振動刺激では，振動刺激中のH波は安静時よりも低値を示すが，振動刺激終了後は脊髄興奮性が上昇し，同側ヒラメ筋のH波を促通するという先行研究を支持する結果となった．しかし，80Hzの振動刺激においては，振動刺激中のヒラメ筋H波は有意に低値を示し，振動刺激直後も有意差は認められなかったが，最大振幅比は低値を示した．これは，膝蓋腱への80Hzの振動刺激は，ヒラメ筋H波を抑制した事が示唆され，Ericらの報告における，振動刺激が脳卒中後の足関節底屈を伴う下肢の異常な同時収縮を調整する可能性について支持する結果となった．更に，大腿二頭筋腱への振動刺激では，80Hzの周波数では，ヒラメ筋H波の抑制は得られず，大腿二頭筋に緊張性振動反射は生じなかったことが予想される．しかし，100Hz以上の周波数では，振動刺激中のH波の抑制が生じ，120Hzでは振動刺激終了直後でもH波の抑制が確認された．このことから，緊張性振動反射を誘発するには100Hz以上の周波数が必要であり，より強く筋収縮が誘発される事で，拮抗関係にある筋に対する抑制効果が増大する事が示唆された．【理学療法学研究としての意義】本研究において，振動刺激とシナプス前抑制は深く関与していることが明らかとなった．また，120Hzの振動周波数で大腿二頭筋腱へ振動刺激を負荷する事が，同側ヒラメ筋の筋緊張抑制に有効であることが示唆された．更に，振動刺激には，電気刺激同様の効果が期待できることが示唆され，その効果には振動周波数が深く関与していることが明らかとなった．今後，振動刺激が筋緊張に及ぼす影響や，その他の治療方法との比較などさらなる検討が必要であると考えられるが，本研究により，振動刺激が痙縮に対する有効な治療手段として臨床応用することや，家庭でのホームエクササイズの一つとして活用していく事が期待できるのではないかと考える．</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="100" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>多相發振器の基礎理論に就て</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/58/594/58_594_29/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>1938年</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>58 巻, 594 号, 29-39</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1938/01/10</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>多相振動を發生すべき多相發振系を考へ,之に關する基本方程式を立てると循環聯立方程式となる。本篇ではこの聯立方程式の解としての定理を紹介し,之に依つて多相振動發生の理論を説明した。その結果,n相發振系に於てはn種のn相振動の發生し得ることが分り,各振動に對する振動條件が得られた。最初振動の定常状態に就て論じ,然る後振動の過渡現象に對して説明を試みた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="100" customHeight="1">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>031</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>複合ダイナトロン發振器の周波數安定度</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/54/557/54_557_1265/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>1934年</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>54 巻, 557 号, 1265-1270</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1934/12/10</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>本論文では筆者が曾て提案せる複合ダイナトロン發振器の周波數變動を測定し,單一周波數發振器の場合と複合ダイナトロンの場合とを比較研究した。先づ最初に變動測定方法に就いて述べた。内部グリッド振動の基本周波數が4,200サイクルの時に0.1サイクルの確度を以て測定しアノード振動の基本周波數が600キロサイクルの時に1サイクルの確度を以て測定したのである。アノード振動が内部グリッド振動に依つて變調せられて居る時には側帶の存在に依つて測定が困難であると想はれそれに對する二つの方法を考察したが實際上側帶を除く事は殆ど不可能であるので,それを斷念し精密周波數計を用ひて實際に測定してみると大した困難もなく測定する事が出來た。併し内部グリッド振動の周波數が低くなつて來ると搬送波とのビートと側帶とのビートが重疊し測定に愼重なる注意が必要であつた。アノード電壓の變化に對する變動率はアノード振動側には單一振動ダイナトロンの方が複合ダイナトロンよりも僅に少いが,内部グリッド振動の方は複合振動の方が非常に少い。外部グリッド電壓の變化に對しても同樣な事が云へる。然るに内部グリッド電壓の變化に對しては,アノード振動も内部グリッド振動も複合ダイナトロンの方が變動が少い。而も複合振動が單一振動により惡い場合の程度は極く僅かであるが,複合振動が單一振動に比して變動が少い場合の程度は非常に大である。故に一般的に見て複合ダイナトロン振動の方が周波數安定度がよいと云ふ事が出來る。纎條電流の變化した時はアノード振動に對しては,單一振動の時の方が變動が少く内部グリッド振動に對しては複合振動の時の方がよい。これ等の理由に對する考察がなされてある。一方の周波數を變化せしめた時に他の振動の周波數が變化するのを"相亙周波數變動"と名づけ,それに就いての實驗をなした。一般にアノード振動周波數の増加は内部グリッド振動の周波數を高める。それに反して内部グリッド振動の周波數の増加はアノード振動の周波數を減少せしめる。その變動は併し非常に僅である。この相互周波數變動は單に振幅の變化を以て説明する事が出來ない。アノード振動を急に停止せしめると内部グリッドの振動周波數は0.75%減少した。然るに内部グリッド振動を急激に停止せしめてもアノード振動周波數は殆ど變化しない。最後に複合ダイナトロンをビート發振器として用ひた時に時間と共に如何に周波數が變化するかを測定した結果,6時間の中に1サイクル以内の變化であり,實用上充分の確度がある事を明かにした。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="100" customHeight="1">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>032</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>太陽の5分振動</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri1946/34/6/34_6_466/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>1979年</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>34 巻, 6 号, 466-472</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1979/06/05</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/14</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>太陽の表面が周期約5分で上下振動している現象があり, 太陽の5分振動と呼んでいる. この現象は20年程前から知られてはいたが, その物理的解釈については, これといった定説がなかった. ところが最近になって5分振動に関する極めて優れた観測がなされ, 理論の進展とも相まって, 5分振動を太陽の音波の固有振動とする考えが確立された. 5分振動が太陽の固有振動であるとなると, この性質を使って直接目で見ることの出来ない太陽内部の物理状態を探る研究分野が開けてくる. ここでは, 5分振動が太陽の固有振動として確立するまでのいきさつと, その応用としての"大震学"について書いてみよう.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="100" customHeight="1">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>033</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>交流コロナ放電に伴ふ導線の機械的振動</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/53/540/53_540_527/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>1933年</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>53 巻, 540 号, 527-534</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1933/07/10</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>種々の周波數の交流電壓及び衝撃電壓を加へた場合のコロナ放電に伴ふ導線の機械的振動に就て實驗し,直流電壓を加へた場合の同樣の現象と比較し,振動の原因及び機構に觸れた。最後に實際の送電線に於て斯樣な振動現象が發生し得るや否やを推察するため154kV送電線の模型に就て振動試驗を行つた。50乃至350サイクルの範圍に於ては振動數は加へる電壓の周波數に無關係で,直流電壓を加へた場合の振動數に略等しい。即ち,此の場合も,加へる電壓の周波數に關係無く導線の固有振動に近い振動が誘起されるのである。衝撃電壓を加へた場合も直流電壓及び交流電壓を加へた場合と同樣の振動が發生する。前報告に詳述した樣に,イオンの運動に依つても振動が發生し得るが,交流電壓の場合は此の外に靜電的力が脈動的(脈動數は電壓の周波數の2倍)に働き,之に依つて振動が發生され,且つ,之が極めて有力である。實際の送電線に於ては常規電壓の下では斯樣な振動は發生し難いが,異常高電壓が加はれば相當の大きさの振動が發生し得る。154kV送電線では大體1,000kV以上の電壓が加はれば相當の振動が發生するものの如くである。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="100" customHeight="1">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>電氣軸に垂直な面に關し外形の對稱な二つの水晶振動子の等價</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/58/602/58_602_741/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>1938年</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>58 巻, 602 号, 741-742</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1938/09/10</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>二つの水晶振動子の外形が水晶の電氣軸に垂直な面に關し互に對稱な場合には,兩振動子の自由振動も此の對稱面に關し全く對稱である。この際壓電氣的に起る電氣的偏極の方向はやはり對稱であるが,向きは反對である。從つて若し兩振動子に配する電極も振動子同樣對稱の關係に置けば,電氣的偏極の向きが反對であると云ふ事實は,振動子を箇別的に取扱ふ場合に於ては全く問題外になるから兩振動子は全く等價である。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="100" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>建築物の微振動測定</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxxxx/11/0/11_KJ00001745289/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">建築學會論文集 </t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>1938年</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>11 巻, 6-12</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1938年</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/12/04</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>建築物が不斷の微振動を受ける場合、之が原因の探査の必要なること、及び探査目標は、その振動數、振幅及び被振體の固有振動周期なることを説き、測定器として現在欺る目的に適應せるものが極めて少き爲め、實地測定に當つて精度の稍〓不確實なるも測定に便なる點を考慮せる、建築用振動計製作を試み、之の理論的根據を示し、次いで、某發電所の強制振動を測定せる例題を提示し、一般コンクリートの造の振動時に示す諸性質及び振動源探査結果に就き説明した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="100" customHeight="1">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>スラブ振動と居住環境</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/coj1975/32/1/32_89/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学 </t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>1994年</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>32 巻, 1 号, 89-94</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1994/01/01</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/04/26</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="100" customHeight="1">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>12.5Hzの全身振動負荷が健常者の坐位姿勢制御に及ぼす影響</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2012/0/2012_48101058/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>2012 巻, A-P-41</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2013年</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/06/20</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>【目的】全身振動（Whole body vibration：WBV）トレーニングは特殊な機器上で立位，坐位などの姿勢を取らせて全身を機械的に振動するものである。即時的効果としては，筋柔軟性，筋温上昇という局所のものと，立位バランスや歩容の改善，パフォーマンスの向上などという全身に及ぶものが既に報告されている。WBVによる生理学的変化は足底からの振動刺激が内耳の前庭器，骨格筋，筋交感神経活動を刺激することと，内臓振盪の関与によると考えられている。しかし， 20Hz 未満のWBVの負荷時間による立位及び坐位姿勢制御に及ぼす効果は未だ明らかにされていない。今回，健常者を対象に振動周波数12.5HzのWBVの負荷時間の違いが不安定板上での坐位姿勢制御に及ぼす影響について，運動力学的視点から検討した。【方法】対象は研究の参加を了承した健常青年17 名（男性5 名，女性10 名，平均年齢23.4 歳）であった。方法は被験者に全身振動機器（BIO Relax：大島製作所）の振動テーブル上に足間を20cm離し，かつ両膝を軽度屈曲位して5 分間保持させた立位（非振動条件）と同姿勢で振動刺激（周波数12.5Hz，振幅10mm）を5 分間（振動A条件）と10 分間（振動B条件2）負荷した3 条件を順不同で各1 回行わせた。各条件終了後，被験者を直ちに床から 50cm離れた台上に設置した重心動揺計（グラビコーダーGS-10：アニマ社製）の上に置いた不安定板（SAKAI製DYJOCボード）上に坐らせ，両上肢を胸の高さで交叉させた端坐位を30 秒間とらせた。なお，各条件間に10 分以上の休憩を取らせた。不安定板上で端坐位を保持させている間，頭頂部に固定した3 軸加速度計（MVP-RF8-AC：Micro Stone社製）により，X方向（前額面）とY方向（矢状面）の加速度を測定し，各々の実効値（RMS：Root mean square）と両者の合成加速度を算出した。また，重心動揺計からは30 秒間の圧中心軌跡の総軌跡長と実効値面積を記録した。さらに，端坐位保持終了後には産業科学技術研究開発プロジェクト作製による官能性尺度の一過性ストレス主観で心理状態を評価した。統計処理は3 条件間の各測定値の変化を一元配置分散分析で検討し，効果がみられた場合多重比較検定（Tukey法）を併用した。各測定項目間の関係についてはピアソンの積率相関係数を算出し，一過性ストレス主観については非振動条件と振動条件A,B間でMann-Whitney検定を実施した。【説明と同意】全対象者は本学研究倫理委員会の指針に従って筆者から説明を受け，実験の参加を了承した上で同意書を提出した。【結果と考察】X方向の加速度では，非振動条件3.87±1.41mG，振動A条件10.13±5.21mG，振動B条件12.53±4.98mGであり，一元配置分散分析で効果を認め，振動A・B条件とも非振動刺激よりも有意な高値を示した。Y方向の加速度では，非振動条件8.05 ± 3.22mG，振動A条件7.45 ± 3.05mG，振動B条件11.44 ± 3.62mGと一元配置分散分析で効果を認め，振動B条件が非振動刺激と振動A条件よりも有意な高値を示した。しかし，合成加速度は3 条件間で有意な差を認めなかった。一方，総軌跡長では，非振動条件28.5 ± 4.1mm，振動A条件34.2 ± 5.2mm，振動B条件45.6 ± 6.3mmと一元配置分散分析で効果を認め，振動A・B条件とも非振動刺激よりも有意な高値を示した。実効値面積では，非振動条件0.88 ± 0.34cm2，振動A条件1.53 ± 0.66cm2，振動B条件2.21 ± 0.74cm2 と一元配置分散分析で効果を認め，振動A・B条件とも非振動刺激よりも有意な高値を示した。さらに，振動A・B条件における各測定項目間の相関係数はY方向の加速度と合成加速度，総軌跡長，実効値面積で正の相関を認めた（r≧0.53）。一過性ストレス主観では振動B条件が非振動条件より「注意の集中がしにくい」「ストレスを感じた」などの項目で有意な高値を示した（p&lt;0.05）。本研究の結果，振動負荷時間が長い振動B条件では不安定板での端坐位を保持する際に頭頸部及び体幹の運動や骨盤の傾斜による動揺が振動A条件よりも増大した。振動B条件では，体幹側屈による前額面での運動よりも頭頸部や骨盤の前・後傾といった矢状面での動きが多いことが推測された。WBVによる振動負荷時間が長くなると負荷中の前庭器の撹乱や下肢全体におよぶ筋緊張亢進状態での適応と負荷後の撹乱された前庭覚，固有感覚の解放という相乗効果によって坐位姿勢制御に影響が生じたものと考えられる。【理学療法学研究としての意義】健常者に対する振動周波数12.5HzのWBVは負荷時間の長さの違いによって，前庭器や下肢や体幹筋の固有感覚に生じる撹乱効果と負荷後の解放効果により，端坐位の姿勢制御に影響を及ぼすことが示唆された。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="100" customHeight="1">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>地方自治体における騒音・振動規制の動向</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jriet1972/8/3/8_3_327/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">環境技術 </t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>1979年</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>8 巻, 3 号, 327-332</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1979/03/18</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/03/18</t>
+        </is>
+      </c>
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="100" customHeight="1">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>039</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>環境騒音の測定評価に関する東京都の研究例について</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jriet1972/8/10/8_10_1015/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">環境技術 </t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>1979年</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>8 巻, 10 号, 1015-1022</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1979/10/30</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/03/18</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="100" customHeight="1">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>実験データを併用した構造変更後の振動予測の省工数と迅速化</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2020.58/0/2020.58_09a2/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>2020.58 巻, 09a2</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2020年</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2020/09/25</t>
+        </is>
+      </c>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="100" customHeight="1">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>加振力を用いない構造変更後の応答予測</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmedmc/2018/0/2018_317/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamics &amp; Design Conference </t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>2018 巻, 317</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2018年</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2019/02/25</t>
+        </is>
+      </c>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>The proposed method presents an approach to estimate the responses of vibration without using exciting force and displacement excitations. It is useful for the practical development in industries, in the case of excitation force and excitation displacements act at the same time, even if Guyan's static reduction method is applied for the beam model, numbers of the measuring points and used modes are reduced. The responses of vibration are usually calculated by modal parameters and exciting forces. However, force estimations spend the long time and manpower. The proposed method has a merit to be able to calculate the responses after the modification of a structure by (a) prototype vibrations of designated points on running conditions, (b) modal parameters of the structure before modification and (c) stiffness and mass matrices differences of modification area between before and after modification. These data are usually available during noise and vibration development tests so that the proposed method does not need additional man power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="100" customHeight="1">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>加振力を用いない構造変更後の直接応答予測</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmedmc/2016/0/2016_347/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamics &amp; Design Conference </t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>2016 巻, 347</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2016年</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/19</t>
+        </is>
+      </c>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>The proposed method which estimate the responses of vibration without using exiting forces is found useful for the practical development in industries, even if numbers of the measuring points and used modes are reduced, and Guyan’s static reduction is applied for the beam model. The responses of vibration are usually calculated by modal parameters and exiting forces, however force estimations spend the long time and manpower. The proposed method is able to calculate the responses after the modification of a structure by (a) prototype vibrations of designated points on running conditions, (b) modal parameters of the structure before modification and (c) stiffness and mass matrix difference of modification area before and after modification. These data are usually already available for noise and vibration development, so that the proposed method does not need additional man power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="100" customHeight="1">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>504 加振力を用いない構造変更後の直接応答予測 : バネマスモデルでの検証(機械力学・計測制御I)</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2016.54/0/2016.54__504-1_/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>2016.54 巻, 504</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2016/02/26</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/19</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="100" customHeight="1">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>044</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>515 部分構造変更時の全系振動騒音予測技術の精度の検証 : 回転自由度整合のためのGuyan の静縮小とオーバーラップの誤差</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2013.51/0/2013.51__515-1_/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>2013.51 巻, 515</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2013/02/25</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/19</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="100" customHeight="1">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>615 H2推定とボード線図の位相を用いた構造物の減衰推定の精度向上(機械力学・計測制御V)</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmecs/2010.48/0/2010.48_189/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国四国支部総会・講演会　講演論文集 </t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>2010.48 巻, 615</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2010/02/24</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/19</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="100" customHeight="1">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>同心球状電極熱電子管に依る電子振動</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/56/570/56_570_16/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>1936年</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>56 巻, 570 号, 16-23</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1936/01/10</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>電極を同心球状にした特殊管を試作して電子振動を發生せしめたる場合に如何なる振動が發生するかを實驗的に明かにしてゐる。平面電極の場合の振動を一次元電子振動,同心圓筒の場合を二次元電子振動と考へる事が出來るから,此處に發表する新しい電子振動は三次元電子振動又は立體的電子振動と考へらるべきものと思ふ。外部振動回路の存在しない時にはグリッド電壓Vg=400V,アノード電壓Va=0Vの時に150cm程度の振動が發生し,後述の理論波長式に比較すると短い波長の振動が發生する。それと同時に興味ある事は15m近くの長い波長の振動が發生する事であつて,これはダイナトロン型振動ではない。矢張り電子的原因に依る負性抵抗が振動の基因と思はれ丁度マグネトロン振動のB型に相當するものであらう。次に外部回路が存在する時にはその長さの變化に依つて波長は變化するが,普通の眞空管に於ける結果の如くG.M.振動の範圍とB.K.振動の範圍とが明かでなく,もつと現象は複雜である。一般に理論波長式に比して振動波長は短く,又低電壓に於てよく80cm,60cm程度の振動が發生する。これ等の振動は矢張り外部回路に支配され,非常に強勢であつて波長は電源電壓の變化には無關係であるが,或る電壓の處で急に他の波長の振動に飛躍する。そして普通はグリッド電壓が高くなると波長が短くなるのに反し,グリッド電壓が高くなると長い波長に飛躍する。理論式で波長200cm以上の時でもこれ等の短い振動が發生するのであるが,これは所謂矮小波ではないと思ふ。又定波長の變調の可能性に就いても論じてある。これ等の短い波長の振動は陽極が負の時に發生し,その時陽極電流は流れず精密に測定した處,却つて負電流が流れて居る事を知つた。これは面白い事である。纎條がスパイラルになつて居るので,これまでのグリッドスパイラル振動に對して纎條スパイラル振動が發生する事を知つた。纎條回路の長さに依つて波長の變化する範圍と影響を受けない範圍及び波長が飛躍する範圍とがある。この事は丁度G.M.振動とB.K.振動とが交互に發生する時と類似して居る。次に電子運動が三次元的に行はれて居るか否かを知る爲に波長140cmの振動と波長60cmの振動とに對して三方向に磁界を向けてその影響を見たがVa=0Vの時にはあまり一樣に振動して居ず,或る方向の磁界の場合には振幅が約2倍迄増加すると言ふ特異なる新現象を發見した。併しVaが充分負の時には空間電荷の存在の爲に電子運動は略三次元的に行はれて居る事を知つた。出力の測定の結果約1W程度の振動である事が知れたが,能率が比較的悪いのは管の設計指針即ちアノード半徑とグリッボ半徑との比ra/rgやグリッドの構造等が未だ圓筒形の如くに明かにされて居ないからやむを得ないので,もつとそれ等を研究すれば電子を三次元的に運動せしめるのであるから,普通の圓筒形の場合よりも能率が高くなり得る事は明かである。矮小波はかくの如き球状電極に於ても發生する。第一次の矮小波は明かに存在し,第二次以上のものも存在するらしいがその測定の結果は整然として居ないので明かな事は言へない。最後に電子の走行時間を考へ三次元電子振動の場合の理論波長式を種々なる場合に就き導き出し,波長と電壓關係を理論式より求めて圖示したが,一般的にはB.K.式,Scheibe式に比し同じ條件では僅かに波長が長くなり,實驗結果では波長式の與へる波長よりも常に短い振動が主として發生するので波長式の當否は未だ確たるものではない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="100" customHeight="1">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>微小振動測定とその量子限界</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri1946/38/7/38_7_567/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>1983年</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>38 巻, 7 号, 567-576</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1983/07/05</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/14</t>
+        </is>
+      </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>巨視的な振動子の微小振動を測定する技術が発達してきて, 原子核半径よりも小さな振動振幅を検出することが可能になってきた. 最近では, 量子雑音レベルをもった低雑音増幅器が出現し, 量子限界における振動子の測定という可能性が与えられた. 更には通常の位置・運動量の不確定性関係から決まる量子限界を越えて, 振動子の任意に小さな振動を測定できるという quantum nondemolition (QND) 測定法が提案され注目されている.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="100" customHeight="1">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>ヘルツ振動器群</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/52/525/52_525_314/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>1932年</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>52 巻, 525 号, 314-319</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1932/04/10</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>主振動器の側に補助振動器をおいた場合の遠點に呈する電場分布は相互の關係位置と補助振動棒の再輻射係數及び再輻射角によつて定まる。單圓〓の電磁波に對する再輻射係數及び再輻射角は前論文「圓〓の電磁波分布に及ぼす効果」に明かになつてゐる。それを用ひて理論的に求めた電場強度の極座標曲線は實驗によつてよく一致する事が確められた。多數の振動棒を主振動器の前又は後に並べた場合の電波電場の指向性も明かにされる。又主振動器を焦點におき任意の再輻射係數及び再輻射角を有する振動棒をその振動棒の呈する「固有干渉波頭抛物線群」上に多數列べると最も完全な反射器となる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="100" customHeight="1">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>メタマテリアルを用いた音場制御について(&lt;小特集&gt;非線形音響技術の最先端～医療から航空宇宙まで～)</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmemag/119/1167/119_KJ00010238157/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会誌 </t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>119 巻, 1167 号, 90-91</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2016/02/05</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/21</t>
+        </is>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="100" customHeight="1">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Na冷却高速炉における大口径配管の流力振動評価に関する研究</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aesj/2008s/0/2008s_0_286/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本原子力学会　年会・大会予稿集 </t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>2008年</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>2008s 巻, M03</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2008年</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/21</t>
+        </is>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>FBRホットレグ配管の流力振動評価手法の確立のため、1/3スケールモデルを作成し、流動振動試験を実施した。この試験で評価手法の妥当性検証用の配管の固有振動数やランダム振動応答を計測した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="100" customHeight="1">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>薄圓板の縱振動</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/51/511/51_511_88/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>1931年</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>51 巻, 511 号, 88-92</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1931/02/10</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>水晶振動子は屡々薄い圓板状に作つて用ひられるが,その固有振動の中には,圓板の軸に垂直な方向のものがある。その振動週期は如何に決定され,又如何なる姿態の振動であるかを知る豫備行爲として,等方體から成る薄圓板の軸に垂直な方向に於ける縱振動を論じた。その主なる結果は第五節の結論に掲げた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="100" customHeight="1">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>052</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>多連ビル構造物のアクティブ振動制御 : 第1報, 4連ビル模型構造物の地震応答制御</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/kikaic1979/64/624/64_624_2840/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本機械学会論文集 C編 </t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>1998年</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>64 巻, 624 号, 2840-2846</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1998/08/25</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/02/26</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>This paper proposes a active vibration control method for four high-rise buildings arranged in parallel subjected to horizontal seismic excitation. According to this method, four structures connected by control devices called as "active control bridge" are controlled actively by controlling each other. This method have a merit to obtain enough control force under the low frequency. By means of this method, it is able to control vibration of the super tall building against the strong wind and a large earthquake. In this paper, the control effect of this method is demonstrated by the vibration control using LQ and suboptimal control theory using earthquake excitation theoretically and experimentally.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="100" customHeight="1">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>居住性からみた振動の評価方法</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jasj/75/5/75_291/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本音響学会誌 </t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>75 巻, 5 号, 291-296</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2019/05/01</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2019/11/01</t>
+        </is>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="100" customHeight="1">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>三極眞空管二重發振器に依る振動に就いて</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/45/447/45_447_859/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>1925年</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>45 巻, 447 号, 859-869</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1925年</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>三極眞空管發振器が獨立せる二ツの振動回路を含み、然かも各々が發振聯結を持つ場合に發生する振動は、回路定數或は眞空管定數と如何なる關係にあるかを考察する。茲に論ずるは特殊の場合即ち一方の振動回路の自然振動數と他方の夫れとが著しく異なる場合である。各振動つ發生可能なる區域は回路定數等に依つて明かに定められるのであるが、その變移は躍進的であつて且つ履歴現象が現はれる。二ツの振動回路の振動數が著しく異なる時のみ、兩振動が同時に發生し得るのであるが、各振動の發振作用の強弱に從つて種々の發振状態がある。尚數種の結線法を求めてある。此報告は次の項目に別つ。1 緒言2 單一振動發生に於ける履歴現象3 低周波振動回路が聯結回路なる場合の異常現象4 兩振動が確立する場合5 ブラウン管に依る實驗6 結線法</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="100" customHeight="1">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>055</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>腕につけた振動モータによる音楽情報伝達方法</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/itetr/24.28/0/24.28_9/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">映像情報メディア学会技術報告 </t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>2000年</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>24.28 巻, VIS2000-72</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2000/04/14</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/23</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>本報告は聴覚障害者などのために、腕に取り付けた振動モニターによる音楽感性情報の伝達方法を述べたものである。腕の振動距離の分解能、振動周波数の検知・判定限界、複数振動モータによる音楽情報の伝達とその効果について検討した。振動に対して腕部の特性は、距離分解能が数cm以上であること、15Hz以下の振動周波数が分離した振動として判断できることを示した。また、音楽の周波数成分を8分割し、それぞれの周波数に対して振動させた結果、感性に対して効果があることを示した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="100" customHeight="1">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>12) 壁付模型架構の振動減衰性に關する研究</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxxx/36/0/36_KJ00004402973/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築學會論文集 </t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>1947年</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>36 巻, 44-49</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1947/12/20</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/12/04</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>一單弦振動體に,三種り基本抵抗が別々に作用する場合生ずる三種の標準減衰振動の特性を利用して,一般空中振動體に作用する抵抗の種類,大さを分析する方法を提案し,此方法により壁付模型架構の振動減衰原因を究明し,架構建築の耐震性研究に當り必要なる建築物振動減衰性の一面を明にしたものである。内客目次は次の通りである。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="100" customHeight="1">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>液体貯蔵円筒容器を対象とした地震応答解析手法の開発</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aesj/2008s/0/2008s_0_365/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本原子力学会　年会・大会予稿集 </t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>2008年</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>2008s 巻, J26</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2008年</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/21</t>
+        </is>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>大型の液体貯蔵円筒容器の耐震性評価に関して、現在の手法は、容器側板円周方向の高次振動モードであるオーバル振動を考慮しないで評価を行っている。耐震裕度の観点から、容器の振動応答へ与えるオーバル振動の効果を実験的に示す。さらに、オーバル振動を考慮して、高精度な評価ができる地震応答解析手法を提案する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="100" customHeight="1">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>超短電磁波の發生に就て(三)</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/52/525/52_525_331/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>1932年</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>52 巻, 525 号, 331-339</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1932/04/10</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>三極眞空管サイモトロンU.F.-101により六種類の電子振動を發生することが出來る。第一がBarkhausen &amp; kurz (B. K.)の振動にして此波長はB. K.の波長式によく從ふ。第二はB. K.振動の略二倍の周波數の振動であつてPotapenkoの所謂"Zwergwellenerster Ordnung"又はHollmannの所謂B. K.振動の第二高調波であり最短波長30糎である。第三は補極電壓により波長變化を殆んど受けない52～54糎波である。第四は補極捲線と此支持線がつくる回路の固有波長をもつ振動である。(波長18～17糎)第五,第六は何れも被長12糎にして前者は補極電壓230V～250Vの範圍に發生し後者は補極電壓250V以上に於て陽極板電壓の著しく負の値で起る振動である。陽極板電壓及び纎條電流を一定に保ち補極電壓を漸次増加すれば上記の振動系統が相次いで現れる。各系統の振動は夫々一定の補極電壓にて最大強度をとる。之等の補極電壓間にはKalininかStruttが云ふ如き簡單たな關係はない。補極電壓及び陽極板電壓の一定値に對して纎條電流に最大三つの異つた振動帶のある事,又補極電壓及び纎條電流が一定の場合陽極板電壓に最大三つの異種振動帶のあることが示してある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="100" customHeight="1">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>周波數變調皆無の電子振動變調方式</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/55/563/55_563_511/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>1935年</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>55 巻, 563 号, 511-515</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1935/06/10</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>四極眞空管内の二つのグリッドを利用して電子振動を發生せしめ,その外部の電極の電壓に依つて周波數を變化せしむる事なく振動振幅を變調出來る事を實驗的に示し從來までの電子振動の變調に伴ふ周波數變調に依る歪を除く新方法を提案した。内部グリッドは振動用加速グリッドとして繊條に對し正の高電位に保ち,外部グリッドを振動陽極として僅かに負電位にして電子を舞ひ戻らしめる。陽極は變調陽極として作用しその電壓が正電位0～30Vの間に殆ど直線的に振動振幅が變化する。即ち變調陽極が正になると振動陽極を通り抜ける電子が増加し,その電壓に依つて電子振動に參與する電子の數を制御する事になるから振動振幅が變化する。波長の方は變調陽極電壓の正の方は勿論負の方も-17V邊までは變化しない。それ以上負になると波長は短くなる。これは振動陽極電壓が-1Vの時であるがもしその値が適當でないと波長はその様に一定ではない。特に振動陽極が正になると波長が飛躍する所が生じ,又振動振幅の變化も不規則になる。實際音聲電壓を加へて變調した結果,歪は殆ど認められない程度まで完全な變調が得られ,特性の上から想像された如く振動陽極電壓が-1Vの邊が最もよく,それが正になると歪が生ずる事も想像通りである。外部回路は丁度Gill-Morrell振動の範圍になる様調整したが,電壓關係が理想的な時にはBarkhausen-Kurz振動の範圍でも大して歪なく變調が出來る事を知つた。從來までのグリッド變調及ひ振動陽極變調の試驗を行つたが此の方式に比して歪が多く,又外部回路のある値(即ちGill-Morrell振動)の時のみ通話が出來その値から少し外れると非常な歪が發生し,本方式の如くB. K.及びG. M.の兩振動の場合とも歪なく變調出來るのに比して劣つてゐる。繊條電流に依る變調に就いても試みたが滿足なる結果は得られなかつた。次に波長に就いて實驗結果と理論とを比較し,實驗値の方が短くなる理由を二つ擧げて説明し,四極管内の此の種の電子振動が織條と外部グリッド間の電子往復運動に依るものである事を示した。本文は次の諸項より成る。[1] 緒言[2] 四極電子管に於ける電子振動[3] 新變調方式に就いての實驗[4] 實際の變調試驗[5] 電子振動の波長に就いて[6]結論</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="100" customHeight="1">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>磁石付き音叉の持続振動とメルデの実験</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/apej/182/0/182_60/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">物理教育通信 </t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>182 巻, 60-64</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2020年</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2021/03/09</t>
+        </is>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>ネオジム磁石を付けた音叉に、その固有振動数で電流が変化する電磁石を近づけると音叉が共振して振動が持続する。また、音叉に糸を付けて引くと糸が共振して振動する（メルデの実験）。プラ板に磁石を付けても振動源にできる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="100" customHeight="1">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>鋼製原子炉格納容器の振動解析</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxx/338/0/338_KJ00003922224/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築学会論文報告集 </t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>1984年</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>338 巻, 19-28</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1984/04/30</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/08/22</t>
+        </is>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>本論では初めに, 鋼製原子炉格納容器を対象として, 軸対称シェル構造物の任意位置に集中付加重量が存在した場合の振動解析法について述べた。本解析法の特徴は以下の通りである。(1)軸対称シェル要素には, ドーム等の母線方向の曲面をよく表現できる曲面シェル要素を用いている。(2)軸対称固有値解析は, 精度の良い解を能率的求められるサブスペースイテレーション法により解析する。(3)シェルと付加重量のひずみ・運動エネルギーに対し, Lagrange式を適用することにより, 軸対称モードの重ね合せで連成固有モードを得る。(4)連成固有モードを用いた時刻歴モーダル解析により強制振動解析を行い, 各部の時刻歴応答を求める。次に, 解析例として, 2つのエアロックを集中重量に考慮した鋼製格納容器の振動解析を行った。その結果, 以下の事が判明した。(1)格納容器は, エアロックの付加重量によりビーム振動に高次のオーバル振動が連成した複雑な振動モードをもつ。(2)定常水平振動に対して, 種々のオーバル振動が連成することにより, エアロック部は広い振動数領域で多くの共振ピークをもつ。特に, エアロック部の局部振動のピークが顕著に現れる。(3)ランダム地震動に対して, エアロック部の時刻歴応答は局部振動周期が卓越し, その時の格納容器の振動モードは種々の高次のオーバル振動が連成した複雑な形をしている。等が, 本解析により明らかとなった。以上の事から, この種の構造物の地震時挙動の評価には, ビーム振動に加え局部振動および高次のオーバル振動の考慮が重要であることが示され, これらに対して本論で述べた一連の解析法は有用な一手法であるとものと考える。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="100" customHeight="1">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>直線運動機構を用いた高層構造物制振用T•M•D</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/gomu1944/64/5/64_5_295/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本ゴム協会誌 </t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>1991年</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>64 巻, 5 号, 295-299</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1991年</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2007/07/09</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="100" customHeight="1">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>水平地震動の特性の方向による変動</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aijsaxx/226/0/226_KJ00003747935/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築学会論文報告集 </t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>1974年</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>226 巻, 39-44,103</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1974/12/30</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/08/22</t>
+        </is>
+      </c>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>本論は, 先ず, 水平地震動の特性の方向による変動を解析的に述べ, 次に, それを実際にとれたいくつかの水平加速度記録に適用して, 具体的に計算してみたものである。得られた結果を要約すれば, およそ次のうになるであろう。ある地点でとれたある地震の水平加速度記録について, その各種特性値の方向による変動幅は, それぞれの平均値に関して, おおむね, i)パワースペクトル密度…±50% ii)クロススペクトル密度の絶対値…±30% iii)時間に関する2乗平均値…±20% iv)時間に関する2乗平均平方根値…±10% v)時間に関する最大加速度の絶対値…±20%程度と評価できる。ある地点での水平動と一口に言っても, このように大きな変動幅がすでに内蔵されているのである。ここでは, そういう視点と処理の必要性を強調した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="100" customHeight="1">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>064</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>レーザドップラ振動計を用いた衝撃校正の妥当性に関する研究</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/pscjspe/2014A/0/2014A_811/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">精密工学会学術講演会講演論文集 </t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>2014A 巻, Q03</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2014/09/01</t>
+        </is>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2015/03/01</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>市販のレーザドップラ振動計と衝撃校正用として従来使用していたホモダイン型レーザ干渉計との比較を加速度計の衝撃校正という観点から評価した。レーザドップラ振動計とホモダイン型レーザ干渉計からの干渉信号を直接復調した結果、ピーク加速度10000 m/s2までに対して両者の偏差は0.01 %程度であったが、レーザドップラ振動計の方が優れている結果を示した。これら研究結果に関する報告を行う。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="100" customHeight="1">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>065</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>衝撃加速度標準のためのデジタルフィルタ技術を用いたバーチャルアンプの開発</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/pscjspe/2013S/0/2013S_927/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">精密工学会学術講演会講演論文集 </t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>2013S 巻, N36</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2013/02/27</t>
+        </is>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/08/27</t>
+        </is>
+      </c>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>自動車のエアバッグ制御や人体の安全性評価のため、5000 m/s2までの衝撃加速度標準(電圧感度：加速度センサとチャージアンプの一体物)を開発したが、産業界では加速度センサ単体の電荷感度も強く求められている。そのため、チャージアンプの周波数応答と逆特性をもつバーチャルアンプを開発した。本発表では、バーチャルアンプに組み込まれた無限インパルス応答フィルタや離散フーリエ変換を用いた計算方法について報告する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="100" customHeight="1">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>多重周波數ダイナトロン發振器及びその周波數安定度</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/55/559/55_559_105/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>1935年</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>55 巻, 559 号, 105-109</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1935/02/10</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>n重周波數ダイナトロン發振器に於てn=3の場合にも容易に三振動が獨立に發生する事を示し,n=2の場合に相當するMcLachlan氏の發振器と筆者の一人(林)の複合ダイナトロンとの優劣を論じ,次にn=2の場合の變調現象をオッシログラムに依つて明かにした。周波數變動の測定には前論文(2)のものと略同一の装置を用ひ,n=2の發振器に於て,アノード電壓,外部グリッド電壓,内部グリッド電壓の變化が再振動の周波數に如何に影響するかを測定した。高周波の方は377.4kc,低周波の方は8,500サイクルを用ひた。問題は單振動の場合の變動率と二重振動の時の變動率との比較にあるのであつて,Δfl',Δfl"を以て各々高周波振動が發振して居ない時及びして居る時の低周波振動の周波數變動,Δfh',Δfh"を以て低周波振動が發振して居る時及びして居ない時の高周波振動の周波數變動を表し,Va,Vg,Vr,Ifを各々アノード電壓,外部グリッド電壓,内部グリッド電壓,纎條電流とすれば規定値以上の僅かの變動の時にはΔfl'/ΔVa&lt;Δfl"/ΔVa, Δfl'/ΔVa&gt;Δfl"/ΔV0,Δfl'/ΔVr&lt;Δfl"/ΔVr, Δfl'/ΔIf&gt;Δfl"/ΔIfΔfh'/ΔVa&gt;Δfh"/ΔVa, Δfh'/ΔVg&gt;Δfh"/ΔVg,Δfh'/ΔVr&gt;Δfh"/ΔVr, Δfh'/ΔIf&gt;Δfh"/ΔIf規定値以下の僅かの變動の時にはΔfl'/ΔVa&gt;Δfl"/ΔVa, Δfl'/ΔVg&gt;Δfl"/ΔVg,Δfl'/ΔVr&gt;vfl"/ΔVr, Δfl'/ΔIf&gt;Δfl"/ΔIfΔfh'/ΔVa&gt;Δfh"/ΔVa, Δfh'/ΔVg&gt;Δfh"/ΔVg,Δfh'/ΔVr&gt;Δfh"/ΔVr, Δfh'/ΔIf&gt;Δfh"/ΔIfの如き結果となつた。即ちこれから直ちに理解される如く,一般的に見て,單振動の時よりも二重振動の時の方が變動率が少いと云ふ事になる。複合ダイナトロンに於ける結論と同一である。次に相互周波數變動に就いての實驗をなし,複合ダイナトロンよりも獨立性が惡いと言ふ結果になつた。高周波振動の周波數を上げると低周波振動の周波數は高くなり,低周波振動の周波數を上げると高周波振動の周波數が下ると言ふ事が示された。次に一極振勤の急激な停止に伴ひ,他振動に如何なる周波數變動を與へるかと言ふ事を實測した結果,高周波振動が停止した爲+1.81%の周波數變化が低周波側に生じた。低周波振動が停止した爲に生ずる高周波振動の變化ほ實驗が困難な爲に測定出來なかつた。次に他の振動に依つて負性抵抗が如何に増加するかと言ふ事を實驗的に求めた。周波數が接近する程,及び振動電流が大になる程負性抵抗の増加が大になつた。本發振器を周波數の方から見るばかりでなく,エネルギーの方からも考察すべき事を述べた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="100" customHeight="1">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>067</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>振動二相流の数値シミュレーション</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aesj/2010f/0/2010f_0_377/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本原子力学会　年会・大会予稿集 </t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>2010f 巻, L29</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2010年</t>
+        </is>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/10/18</t>
+        </is>
+      </c>
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t>振動する容器内の二相流の数値シミュレーションを行った。二相界面の運動はレベルセット法により求め、振動する流れ場はALE法により計算した。界面への振動の影響を調べ、容器を固定し振動する体積力を流体に与える簡易的な方法と比較した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="100" customHeight="1">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>068</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>振動速度情報を用いた薄い板状試料の超音波イメージング</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/isj/57/4/57_422/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本画像学会誌 </t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>57 巻, 4 号, 422-425</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2018/08/10</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2018/08/13</t>
+        </is>
+      </c>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>本論文では，超音波振動の観測から薄い金属やプラスチック等の薄い試料の形状や欠陥を評価する方法として，圧電振動子を定電圧駆動する方法および光学的に非接触で振動速度を測定する手法を用いて振動速度情報の検出からイメージングを行う方法について述べている．最初に圧電振動子の等価回路解析から圧電振動子を定電圧かつ共振周期を持つ矩形波電圧で駆動する方法について述べた．この方法は，圧電振動子の機械的な残留振動 (リンギング) を押さえることができ，しかも既報3)に比べ駆動効率が20dB以上向上した．この駆動法を用いて圧電振動子を駆動し，振動子面上に置いたエッチングされた金属薄板のイメージングを行った．イメージングは振動速度の時間差を用いた方法について行った．この結果，数十μmレベルの厚さの差がイメージでき，電子回路基板等の薄い板状の試料の欠陥やイメージングに適用できる可能性を明らかにした．</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="100" customHeight="1">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>脳卒中片麻痺患者における振動刺激が運動錯覚に与える影響</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2009/0/2009_0_B4P1092/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>2009 巻, P1-092</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2010年</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/05/25</t>
+        </is>
+      </c>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>【目的】  近年，筋・運動感覚イメージの想起が運動学習に極めて重要であることが脳研究により明らかにされ，この筋・運動感覚を錯覚させる方法として振動刺激が知られている．しかし，これらの振動刺激を用いた運動錯覚研究は健常者を対象とした報告が多く，脳卒中患者を対象とした研究報告は見当たらない．そこで今回，脳卒中患者を対象に振動刺激の介入を行い感覚変化が生じるか，運動錯覚の特性を内省報告と関節位置覚検査を行い検証したので報告する．【方法】  対象は，高次機能障害のない脳卒中患者6名（右片麻痺5名，左片麻痺1名，平均年齢61.8±3.9歳，Brunnstrom stage3～5）とした.計測パラメータは，位置覚検査の誤差角度を用いた．位置覚検査の方法は，閉眼端座位で他動的に麻痺側肘関節を90度まで屈曲し，非麻痺側にて自動運動で麻痺側を認識している位置まで動かしてもらい測定した．これを，振動刺激前・振動刺激中・振動刺激後（直後～2分毎に6施行，10分間）に測定した．振動刺激（VIBRATOR：泉精器製作所社製，周波数約91.7Hz）は，麻痺側上腕二頭筋腱に1分間当て，肘関節屈曲90度以上できないように固定した．振動刺激中には，運動感覚の内省を聴取した．なお，本研究における振動刺激中の錯覚とは，屈曲位保持にも関わらず，伸展方向への運動感覚が生じることとした．認識している非麻痺側の肘関節角度の解析には，肩峰，外側上顆，橈骨茎状突起にマーカーを貼付し，デジタルビデオカメラを用いて撮影し，撮影した動画はPCに取り込み，Area61ビデオブラウザ（フリーソフト）を使用し静止画を作成した．角度算出は，その静止画をImageJ（フリーソフト）にて解析した．肘関節角度は，肩峰と外側上顆を結んだ線と外側上顆と橈骨茎状突起を結んだ線の成す角とした．統計学的処理は，振動刺激前と振動刺激中，振動刺激直後から10分後（計6施行）までの誤差角度を比較するために，反復測定一元配置分散分析と多重比較検定（Bonferroni）を行った．有意水準は全て5％未満とした．【説明と同意】  対象者には研究の趣旨を説明し，書面にて参加の同意を得た．【結果】  振動刺激中の内省報告は，6名のうち4名は運動錯覚を経験し，下へさがる感じがする（伸展の運動感覚）と報告した．残り2名は特に運動感覚を経験しないと報告した．振動刺激による肘関節角度の誤差変化は，振動刺激前と振動刺激中の比較において振動刺激中に有意な伸展方向への位置覚の誤差を認めた（p＜0.05）．また，振動刺激後の残存効果への影響は，振動刺激中と振動刺激直後との比較において有意差は認めず，振動刺激中・振動刺激直後と振動刺激後から10分後（計5施行）との比較において，有意な位置覚の誤差を認めた（p＜0.05，p＜0.01）．【考察】  今回の実験結果から，脳卒中患者においても振動刺激により運動錯覚が起こることが示唆された．これは，今回の脳卒中患者において，肘伸展運動がわずかにでも可能であった随意性や知覚が残存していたことが要因ではないかと考えられた．しかし，2名においては運動錯覚を経験しなかった．左片麻痺患者の1名は，振動刺激中でも位置覚の変化は見られなかった．また，もう1名は，振動刺激中にはより屈曲方向への誤差が見られた．これらのことから運動錯覚を経験しなかった要因としては，損傷半球の影響や緊張性振動反射の影響などいくつかの理由が推測されるが推測の域をでない．また，振動刺激後の残存効果については，振動刺激直後の残存は認めたが振動刺激後2分以降の残存は認めなかった．そのため，脳卒中患者においては，振動刺激直後から2分後までに振動刺激後の残存効果が消失したことが推測された．今後，脳損傷部位と運動錯覚の関係性や，運動感覚の評価やアプローチとして振動刺激の介入が動作パフォーマンスに及ぼす影響など更なる検討が必要であると考えられる．【理学療法学研究としての意義】  振動刺激により筋・運動感覚の錯覚が可能とされている．このことは，四肢を動かす感覚を忘却した患者にその四肢の動きを体験させることにより，運動の手がかりとなる可能性がある．しかし，脳卒中患者を対象とした研究はみられず，今後脳卒中患者に対する評価，訓練に応用するための基礎データを作ることが理学療法学研究としての意義である．</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="100" customHeight="1">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>体につけた振動モータによる音楽情報伝達と感性</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/itetr/24.51/0/24.51_33/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">映像情報メディア学会技術報告 </t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>2000年</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>24.51 巻, VIS2000-80</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2000/09/14</t>
+        </is>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2017/06/23</t>
+        </is>
+      </c>
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t>本報告は, 聴覚障害者などのために, 腕や頭に取り付けた振動モータによる音楽情報の伝達を行い, 音楽の楽しさなどの感性を与えることができる方法について述べたものである.腕や頭の振動距離と感性, 音楽に対する振動の快適性の効果, 複数振動モータによる音楽快適性の効果について検討した.音楽情報を振動により伝達する上で, より感性を強調するために最適な振動モータ配置, チャネル数, および単位チャネル当たりの振動モータ数を明確にする.そして, 振動を付加した音楽情報を伝達する実験により, ダイナミックレンジが約0.7以上の音楽に対して本手法が感性強調の効果を持つことを示す.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="100" customHeight="1">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>低騒音・低振動型ドリルの騒音および振動に関する現場測定実験</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/finex/2006/0/2006_0_45/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本建築仕上学会　大会学術講演会研究発表論文集 </t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>2006年</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>2006 巻</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2006年</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2006/12/20</t>
+        </is>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t>本論文では、改修工事等に使用する低騒音・低振動型ドリルの振動レベルの低減効果について、既存実建物での測定を行った結果について述べる。測定の結果、低騒音・低振動型のドリルの振動レベルの範囲は、穿孔箇所付近において、上下方向43～53dB、水平方向35～48dBの範囲にあり、振動ドリルを使用した場合と比較して、上下方向10～20dB程度、水平方向5～15dB程度の低減効果があることが明らかとなった。また、低振動ドリルを使用した場合、騒動ドリルの場合と比較して、振動の距離減衰が大きく、振動が影響を及ぼす範囲が小さい可能性を示した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="100" customHeight="1">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>必要最小限の実験モード解析データを用いた構造変更後の特性の予測</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jsmedmc/2020/0/2020_311/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamics &amp; Design Conference </t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>2020 巻</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2020/08/25</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2021/03/13</t>
+        </is>
+      </c>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>While developing a new product, modifications often occur by various reasons, like durability, cost, productivity and so on. At that time, engineers engaging the noise and vibration have to be inform the effects of the modification on the noise and vibration to the another engineers involved the development, quickly and efficiently. The proposed method satisfies these necessary and sufficient conditions for this requirement given as (1) Modal parameters of the whole structure before modification, (2) The difference of the stiffness and mass matrix of the FEM before and after modification around the modified area. To obtain the modal parameters of the whole structure before modification, the test of modal analysis is better than FEM because of the manpower and accuracy of the complicated structure. This paper shows accuracy of the estimated modal parameters of the structure after the modification, by using FEM and experimental data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="100" customHeight="1">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>流體管中の定在波としての電子振動</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/54/556/54_556_1213/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t>1934年</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>54 巻, 556 号, 1213-1219</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1934/11/10</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t>弦,風琴管の振動の如くに電子振動を處理せば在來とは異る方向から同現象の觀察可能で,懸案となつて居る同問題の種々の現象の大體の説明が可能である事を述べて居る。波長,勵振,B-K, G-M兩振動の關係,異種電子振動等いつれもそれほど無理をしなくとも處理ができる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="100" customHeight="1">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>粘菌が教える新しいリズム同期化法(最近の研究から)</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri1946/57/11/57_11_826/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t>2002年</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>57 巻, 11 号, 826-830</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2002/11/05</t>
+        </is>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/14</t>
+        </is>
+      </c>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>多数のリミットサイクル振動子について,それらの"振動運動を記述する変数の一部を個々の振動子の変数の線形結合で置き換える"という,振動子間結合による「新しい」リズム同期化法を見出した.この振動子間結合の方法は,粘菌細胞の生体センサーである受容体が持つ機能を数学的に一般化することにより得られた.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="100" customHeight="1">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>三極眞空管に於ける異種電子振動について</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/54/552/54_552_734/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>1934年</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>54 巻, 552 号, 734-738</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1934/07/10</t>
+        </is>
+      </c>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>同心圓筒状電極構造をもつ三極眞空管のスパイラル型補極に正の高電壓を加へて發生する常規電子振動以外の振動,即ち異種電子振動につき,補極電壓,補極閉結線,纎條電流及び電極構造がその振動の發生及び波長に及ほす影響を20種の供試眞空管に依り實驗的に調べた結果を報告したものである。得られた振動はPotapenkoのZwergwellenに當ることが結論され,上記諸條件が之に及ぼす影響を述べてある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="100" customHeight="1">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>地震工学入門 (その5)</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jjsidre1965/56/1/56_1_67/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">農業土木学会誌 </t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>1988年</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>56 巻, 1 号, 67-73,a2</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1988/01/01</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2011/08/11</t>
+        </is>
+      </c>
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t>地震工学を理解する上で必要最小限の振動論の解説として, 地震工学と振動論のかかわり, 理想化された物体の振動 (調和振動, 1自由度系の振動, 自由振動, 強制振動), 物体の精密な振動状態の記述, 梁の自由振動, 梁の強制振動, 梁の自由振動, 梁の強制振動, 不規則加振に対する応答, 非弾性的材料からなる物体の振動について論じた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="100" customHeight="1">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>免震橋における入力位相差による影響の検討</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/proee1957/21/0/21_0_529/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">地震工学研究発表会講演概要 </t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>1991年</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>21 巻, 529-532</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1991年</t>
+        </is>
+      </c>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/06/15</t>
+        </is>
+      </c>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="100" customHeight="1">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>高周波振動の知覚特性を活用したインタラクション</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal/141/2/141_77/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電気学会誌 </t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>141 巻, 2 号, 77-79</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2021/02/01</t>
+        </is>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2021/02/01</t>
+        </is>
+      </c>
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t>1．はじめに</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="100" customHeight="1">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>079</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Na冷却炉に適用するポンプ組込型IHXの開発２</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/aesj/2006f/0/2006f_0_402/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本原子力学会　年会・大会予稿集 </t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>2006年</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>2006f 巻, K15</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2006年</t>
+        </is>
+      </c>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2006/11/06</t>
+        </is>
+      </c>
+      <c r="I80" s="7" t="inlineStr">
+        <is>
+          <t>(1)ポンプ振動試験の結果に引き続き、FEMによる振動特性評価の結果と考察、FEMを用いたポンプ加振力の推定などについて報告するものである。振動解析にはFINASコードを用いた。これは3次元形状の流体要素を直接モデル化し、その圧力振動を計算するとともに、構造との間に境界要素を介することで流体の圧力振動の構造側への伝播をモデル化することができるコードである。2005秋の大会では内部加振器試験をFINASコードで評価した結果、一部を除いて高い精度で固有振動数を評価できることを報告した。なお、試験と解析間の誤差要因についてもほぼ把握されている。その後、内部加振試験に相当する応答解析を実施し、センサ位置におけるコンプライアンスがほぼ一致することが確認された。解析精度向上のためのモデル改良とともに、ポンプ試験体、試験体架台一式、ループ配管などを新たにモデル化し、ポンプ振動試験体の振動特性を評価した。ランニングスペクトルから試験で出現する応答ピークに相当するモード図を作成し、FEM解析結果と比較した。その結果、ポンプによる強制加振による応答モードを除いて、各応答モードが機器の固有モードに相当することが分かった。また、試験ではポンプ回転数に伴って固有モードの応答振動数が変化するものがあり、一般的な円筒シェル振動における圧力の影響によると予想される。また、ポンプN成分の加振力をFEM解析と試験結果を用いて定量的に評価した結果、ポンプ軸とポンプケーシングの相対振動振幅、ポンプ軸の剛体モードと曲げモードの重畳による機械的励振力とがほぼ一致することが分かった。ポンプ回転数と異なる振動数における応答ピークの振動源はポンプ以外の流動などによるものと予想される。今後、センサを追加するとともに条件を変更した試験を実施し、各種振動源の特性把握を実施する予定である。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="100" customHeight="1">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>マウスの日周活動リズム～活動開始・終了位相を制御する概日振動体の局在</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/hikakuseiriseika/35/2/35_100/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">比較生理生化学 </t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>35 巻, 2 号, 100-107</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2018/08/01</t>
+        </is>
+      </c>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2018/08/15</t>
+        </is>
+      </c>
+      <c r="I81" s="7" t="inlineStr">
+        <is>
+          <t>夜行性げっ歯類の活動リズムにおける二振動体モデルは，活動開始をEvening（E）振動体，活動終了をMorning（M）振動体が制御するという仮説である。これら２つの概日振動体は，相互にカップルするが，それぞれ独立に振動する。 哺乳類の活動リズムは，視交叉上核（SCN）の概日時計によって制御されることから，EおよびM 振動体は，いずれもSCN 内に存在すると考えられる。しかし，そのSCN 内での局在は明らかではなかった。我々は，Period1- luciferase マウスを用いたSCNの発光イメージングにより，SCN内での振動体の局在を検討した。その結果，SCN 水平断において，4つの振動体領域を同定した。このうち，SCNの中心部分を取り囲むように存在する領域がE 振動体，尾側端がM 振動体に相当すると考えられた。SCN 中心部には，光反応性の振動体が存在することも確認された。残る１つは，網膜からの神経投射部位である。これまで，SCNは，前額断におけるコアとシェルのように，2領域に分けて考えられることが多かった。筆者らの水平断による研究は，振動体機能という観点からSCNを4領域に分けることに成功した。この成果は，SCNの機能について，さらに理解を深める基礎になると期待できる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="100" customHeight="1">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>全体的傾向と局所的特徴に基づく時系列データの言葉による表現</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/fss/30/0/30_814/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本知能情報ファジィ学会 ファジィ システム シンポジウム 講演論文集 </t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>30 巻, WD1-5</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2014年</t>
+        </is>
+      </c>
+      <c r="H82" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2015/04/01</t>
+        </is>
+      </c>
+      <c r="I82" s="7" t="inlineStr">
+        <is>
+          <t>時系列データとは時間順に並んだ数値データのことであり、我々人間はこのような時系列データを言葉で理解していると思われる。これまでに、時系列データの全体的傾向と局所的特徴を言葉で表現する方法を提案し、さらに、標準偏差と増減回数を用いて振動を言葉で表現する方法を提案した。これまでの振動を言葉で表現する方法では、グラフの形が異なっているが、標準偏差と増減回数の値がほぼ同じになり、うまく処理できない場合があった。我々人間は振動しているデータを見たときに、振動が少ない場合は振動の様子（回数、振幅、位相など）に注目するが、振動が多い場合はグラフの振動している部分の上側の形（極大値の一部からなるグラフ）と下側の形（極小値の一部からなるグラフ）を見ることで、どのような振動であるかを理解していると思われる。そこで、この研究では振動が多い場合の表現方法として、時系列データの極大値と極小値の全体的傾向と局所的特徴を求めることで振動している部分の概形を表現する方法を提案する。また、実際に振動が多いデータを対象に今回提案する方法を用いて、振動の言葉による表現を求め、有効性を調べる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="100" customHeight="1">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>コンクリートの最適な再振動の実施に向けた実験的検討</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/crt/31/0/31_11/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学論文集 </t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>31 巻, 11-22</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2020年</t>
+        </is>
+      </c>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2020/03/15</t>
+        </is>
+      </c>
+      <c r="I83" s="7" t="inlineStr">
+        <is>
+          <t>コンクリートの品質を向上させる施工方法の一つに振動締固めを行った後，一定時間をおいてから再び振動を与える再振動がある。しかし，再振動の明確な実施時期や実施方法に関する情報は極めて少なく，現場では感覚と経験に基づいた加振が行われているのが現状である。そこで本研究は，再振動の実施時期の指標としてN式貫入深さから求めたコンクリート抵抗値を用い，再振動の実施時期や加振時間の影響について検討を行った。その結果，コンクリート抵抗値が17×10-3N/mm2に到達した時期に再振動を行うのが最も効果的であることが分かった。また，再振動時の加振時間は，5～10秒程度で行うことでコンクリートの品質は向上する結果となった。一方で，再振動の実施時期が遅い場合や加振時間が長くなると，再振動によるコンクリートの品質の改善が期待できなかった。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="100" customHeight="1">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>水平振動方式によるプレキャストコンクリート製品の締固め</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/coj/47/3/47_3_3_39/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学 </t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>2009年</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>47 巻, 3 号, 3_39-3_46</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2009年</t>
+        </is>
+      </c>
+      <c r="H84" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2012/03/27</t>
+        </is>
+      </c>
+      <c r="I84" s="7" t="inlineStr">
+        <is>
+          <t>従来のプレキャストコンクリート製品の工場では，鉛直テーブルバイブレーター，型枠振動機，棒形バイブレーター等によりコンクリートの締固めを行ってきた。これらの振動方式は，作業時に発生する騒音により作業者の労働安全衛生上の問題や，近隣住民の騒音環境悪化の問題が起きている。そこで，作業時の騒音を最小限に抑え，同時に良好なコンクリートの締固めが可能な低振動数かつ高振幅の水平振動方式を提案し研究を行った。本レポートでは，水平振動装置の概要，水平振動方式によるコンクリートの締固めの条件，水平振動方式と鉛直テーブルバイブレーターによるコンクリートの締固めの比較，水平振動方式によるコンクリートの締固め効果の評価について紹介する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="100" customHeight="1">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>強磁場中性子星における巨大フレア現象 : 準周期的振動の新解釈(最近の研究から)</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri/65/12/65_KJ00006773023/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>65 巻, 12 号, 973-977</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2010/12/05</t>
+        </is>
+      </c>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2020/01/18</t>
+        </is>
+      </c>
+      <c r="I85" s="7" t="inlineStr">
+        <is>
+          <t>巨大フレア現象に伴う準周期的振動は,強磁場中性子星の固体表層部における振動で説明できると考えられてきた.しかし,現実的な星モデルを用いた振動解析を行った結果,観測された数10Hzという低周波振動を説明するには,このような振動だけでは不十分であることが分かった.これに対し,別の可能性として考えられる星内部の流体領域における磁場的な振動を解析することで,観測事実を説明する新たな可能性を見いだした.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="100" customHeight="1">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>三相變壓器の内部電位振動に就て</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/58/605/58_605_996/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>1938年</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>58 巻, 605 号, 996-1006</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1938/12/10</t>
+        </is>
+      </c>
+      <c r="H86" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I86" s="7" t="inlineStr">
+        <is>
+          <t>三相變壓器に衝撃電壓波が印加された場合に捲線内部に發生する電位振動を過渡現象直視裝置を用ひて實測し,之が空間定在波調波振動の合成より成る事を確め,各調波の固有振動周波數は外部より可變周波數電壓を加へて竝列及び直列共振點を求める事により測定し得る事を明かにした。一方,各調波の振動を表すべき等價回路を導き,之より固有振動周波數計算式を求め,之に實際の數字を入れて實測値と相當良く一致する事を確めた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="100" customHeight="1">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>振動刺激による骨格筋の筋緊張抑制効果について</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2010/0/2010_0_FcOF1114/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>2010 巻, OF1-114</t>
+        </is>
+      </c>
+      <c r="G87" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2011年</t>
+        </is>
+      </c>
+      <c r="H87" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2011/05/26</t>
+        </is>
+      </c>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>【目的】振動刺激が、骨格筋の筋緊張を抑制するという報告（Desment, 1978）に基づき、関節可動域制限に対する治療法の一つとして臨床で使用され、その効果が報告されている（中野, 2004）。我々は、第45回日本理学療法学術集会において、温熱刺激と振動刺激が骨格筋に及ぼす影響について神経生理学的な検討を行い、臨床における振動刺激の有効性を報告した。今回は、振動刺激の臨床応用についてさらに検討を進めるために、振動刺激による骨格筋の筋緊張抑制効果の経時的変化を明らかにすることを目的として研究を行った。【方法】対象は、下肢に神経障害の既往のない健常成人男性21名（年齢21.6±4.5歳）、被験部位は左下肢とした。振動刺激群（n=15）は、ベッド上腹臥位（膝関節軽度屈曲位、足関節中間位）で、左アキレス腱部に10分間の振動刺激を行った。なお、振動刺激には、Handy Vibe（大東電気工業製）を用いた。対照群（n=6）は、振動刺激群と同様の肢位で、10分間の安静臥床を行った。骨格筋の筋緊張の評価には、VinkingSelect（Nicolet社製）を用いてM波およびH波の最大振幅を測定し、最大振幅比（H max/M max）を算出した。M波およびH波の導出は、左膝窩部から経皮的に脛骨神経を電気刺激した。左ヒラメ筋々腹部およびアキレス腱外側部に電極を貼付し筋電図記録を行った。M波およびH波の測定に関して、振動刺激群では、5分間の安静臥床の後に1回、振動刺激開始後1分毎に10回、計11回の測定を行った。対照群では、5分間の安静臥床の後に1回、その後1分毎に10回、計11回の測定を行った。また、測定終了時には、振動刺激に伴う不快感について、11段階のスケール（0：全く不快感がない、10：耐え難い不快感）を用いて評価を行い、不快感がある場合にはその感覚を聴取し、記録した。統計処理は、StatView5.0を用いて行った。まず、Bartlett検定を行い、その上で二元配置分散分析を行った。また、post hoc testとしてFisher's PLSDを用いて、振動刺激の経時的変化について多重比較検定を行った。【説明と同意】すべての被験者に対して、ヘルシンキ宣言に基づいて紙面上および口頭による説明を行い、同意および承諾を得た。【結果】振動刺激群は、対照群と比較して、振動刺激開始1分後から10分後まで最大振幅比が低値であった（p&lt;0.01）。振動刺激群における最大振幅比の低下は、振動刺激開始1分後から認められた（P&lt;0.01）。また、最大振幅比の低下は振動刺激開始後3分まで継続し（p&lt;0.01）、3分後以降は変化を認めなかった。振動刺激による不快感は、1.1±1.3であった。また、不快感の訴えとしては“重たい”、“痒い”、“痺れた感じ”があった。【考察】本研究では、振動刺激の効果判定を、M波およびH波の最大振幅比を用いた神経生理学的手法で行った。M波およびH波の最大振幅比は、脊髄運動細胞の興奮性を表す代表的な指標であり、脊髄運動細胞の興奮性増大は筋緊張亢進の主要因として知られている。つまり、最大振幅比の低下は、骨格筋の筋緊張抑制を示唆するものである。今回、振動刺激群では、対照群と比較して、振動刺激開始後1分後から10分後まで最大振幅比が低値を示した。また、開始1分後から3分後まで、最大振幅比は低下を認めた。以上より、振動刺激を行うことで骨格筋の筋緊張が抑制されることが明らかとなった。また、臨床で振動刺激を行う場合には、治療時間が1分でも効果を認め、治療時間を3分とすれば最大の効果が認められることが示唆された。また、被験者の報告から、振動刺激による不快感の訴えはあるものの、1/10程度であり、臨床における振動刺激の問題点は少ないと考えられる。【理学療法学研究としての意義】今回、振動刺激の効果を経時的に観察し、臨床における有効な治療時間を検討することができた。1～3分間の治療で骨格筋の筋緊張抑制効果を認めたことは、振動刺激が関節可動域制限に対する有効な治療ツールになることを示唆する。今後は、研究対象を広げ、さらなる臨床応用を期待して研究を継続していく。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="100" customHeight="1">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>法規制における性能規定化の趣旨と歴史的位置付け</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/coj1975/35/11/35_8/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">コンクリート工学 </t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>1997年</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>35 巻, 11 号, 8-9</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1997/11/01</t>
+        </is>
+      </c>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/04/26</t>
+        </is>
+      </c>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t>要約なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="100" customHeight="1">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>振動刺激による反応時間測定装置の開発と評価</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2011/0/2011_Ab1339/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>2011 巻</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2012年</t>
+        </is>
+      </c>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2012/08/10</t>
+        </is>
+      </c>
+      <c r="I89" s="7" t="inlineStr">
+        <is>
+          <t>【はじめに、目的】　臨床で使用される反応時間測定は、多くがコンピュータ・ディスプレーよりの視覚刺激に対する動作開始時間（以下、視覚RT）を測定するものであるが、振動刺激に対する反応時間(以下、振動RT)を測定した例は少ない。そこでパソコンより振動刺激をコントロールできるWiiリモコン（任天堂社製）を使用し振動RTと従来型の視覚RTが測定可能なシステムを開発しその信頼性を検証すると共に視覚RTとの関連性について検討した。【方法】　今回開発した振動RT測定装置は、振動子と反応応答スイッチはWiiリモコン内のものを利用し作成した。このリモコンはパソコンより独自に開発した制御プログラムで反応時間を測定した。また測定プログラムはコンピュータ・ディスプレー上に表示される直径2cmの白色光点の表示後、素早く応答スイッチを押すまでの時間(視覚RT)も測定可能とした。このプログラムの精度はリモコンのスイッチおよび振動子より電気的変化を導出しA/Dコンバーターを通し別コンピュータで測定し実際の反応時間を導いた。この値と反応時間測定プログラムの算出値との誤差を出し精度を検証した。また振動子の振動特性はデジタル表示式振動計（昭和計測製MODEL1332B）を使用し測定した。さらに振動RTの正常域を調査するため健常者34名（平均28.7±SD7.5歳）により足底の反応時間を測定した。また視覚RT測定も合わせて実施した。【倫理的配慮、説明と同意】　本研究は新潟リハビリテーション大学倫理審査委員会および誠愛リハビリテーション病院倫理審査委員会の承認を得て行った。被験者に実験内容を十分説明した上で研究参加同意書に署名を頂き実験を実施した。【結果】　(1)振動RT測定機の特性と精度；振動子の特性測定は振動板上に振動計のセンサーを固定し測定した。加速度振動量は10.3m/sec、速度振動量は6.2mm/sec、変位振動量は0.02mmまた周波数は191.4Hzであった。また反応時間の精度は電気的信号より得たものとプログラムにより算出した値との誤差で相関係数を求めると振動刺激で誤差0.38±5.5msec(n=94)、相関係数r=0.996(p&lt;0.01)、視覚刺激で誤差0.39±6.5msec(n=98)、r=0.995(p&lt;0.01)であった。(2)反応時間の正常域と特性；利き足振動RTは317±37msec、非利き足は314±32msec、視覚RTは278±24msecであった。また利き足と非利き足の振動RT間に有意差は認められなかったが(p=0.334)、視覚RTは振動RTに比較し小さかった(p&lt;0.01)。また各変量の相関を分析すると年齢と両反応時間とも相関を示さなかった。また利き足・非利き足間ではr=0.83(p&lt;0.01)と強い相関を示した。視覚刺激と非利き足の振動RTではr=0.34(p&lt;0.05)とごく弱い相関を認めたが利き足では相関はなかった。【考察】　今回開発した振動刺激による反応時間測定装置は、安定した出力が得られ測定精度も誤差0.38±5.5msecと過去我々が研究してきた視覚RTと殆ど変りない誤差を示したことより充分使用できるものと思われる。また健常被験者の振動RTでは利き足と非利き足では差は認められなかった。これは反応の求心路と処理系に左右差がないことを示す。また今回は反応スイッチを利き手のみで操作したのでさらに差が出にくかったと考えられる。視覚RTが振動RTより小さかった理由に関しては、一般的には体性感覚刺激の反応速度の方が視覚刺激より速いと言われているが、本実験では振動RTの求心路は足底より脳までと長いため視覚RTと差が出たものと考えられた。相関分析で年齢とRTとの間に相関を示さなかったのは本測定では年齢層が20～30歳代が中心であり年齢層の偏りがあったためと思われた。振動RTが利き足・非利き足間で強い相関を示したものの、視覚RTと振動RTでは相関が少なかったことは、前者については両足の反応時間に差がなかったことより個々の被験者の情報処理速度が反映したもので、後者については刺激の種類により個体内でも処理時間にばらつきがあることを示すものと考えられた。【理学療法学研究としての意義】　今回の研究は振動RTを測定する装置を開発し、その信頼性を機械面と従来用いてきた視覚RTとの間で比較検討した。立位歩行においては、視覚よりのフィードバク制御と共に体性感覚よりの情報も重要となってくる。その中で皮膚からの情報の変化を捉え運動に至る速度を評価することも重要と考え本装置の開発に至った。本研究では装置の信頼性を検証し視覚RTと同様に使用できることが確認できた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="100" customHeight="1">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>フェルミオロジー；量子振動と角度依存磁気抵抗振動</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri/76/12/76_812_2/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>76 巻, 12 号, 812-813</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2021/12/05</t>
+        </is>
+      </c>
+      <c r="H90" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2021/12/05</t>
+        </is>
+      </c>
+      <c r="I90" s="7" t="inlineStr">
+        <is>
+          <t>新著紹介</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="100" customHeight="1">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>耳小骨筋反射が耳小骨振動に及ぼす影響</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/audiology1968/42/4/42_4_237/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUDIOLOGY JAPAN </t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>1999年</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>42 巻, 4 号, 237-242</t>
+        </is>
+      </c>
+      <c r="G91" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1999/08/31</t>
+        </is>
+      </c>
+      <c r="H91" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2010/04/30</t>
+        </is>
+      </c>
+      <c r="I91" s="7" t="inlineStr">
+        <is>
+          <t>これまで, 耳小骨筋反射がCMや中耳インピーダンスに及ぼす影響は報告されているが, 耳小骨振動に及ぼす影響については明らかにされていない。 そこで, 我々は, 耳小骨各部位の振動速度を直接計測することが可能なレーザドップラ振動計を用いて, モルモットおよびウサギの対側刺激による耳小骨筋収縮前後での, 耳小骨の振動挙動変化を計測した。 そして, 刺激音圧の増大に伴い, 耳小骨振動振幅が減少し, また, 耳小骨振動の周波数が低いほど, 振幅の減少量が大きいことを明らかにした。 さらに, 反射前後で, 耳小骨の振動様式に生じる変化を推察した。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="100" customHeight="1">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>足底振動が視覚誘導性自己運動感覚におよぼす影響</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/itetr/40.37/0/40.37_29/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">映像情報メディア学会技術報告 </t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>40.37 巻, HI2016-72</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2016年</t>
+        </is>
+      </c>
+      <c r="H92" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2019/09/20</t>
+        </is>
+      </c>
+      <c r="I92" s="7" t="inlineStr">
+        <is>
+          <t>足底に与えた振動が視覚誘導性自己運動感覚（ベクション）におよぼす影響について検討した．観察者の前進運動を模擬したオプティックフローに足底振動，視覚振動，あるいはその両方を加えたときに生じるベクションの強度を測定した．実験の結果，２つの振動を加えたときには振動を加えなかったときと同程度のベクションが生じ，足底振動と視覚振動のいずれかを加えたときにはベクションは弱まることが明らかとなった．この結果は，足底感覚と視覚の整合性に基づいてベクションの強さが決まることを示唆している．</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="100" customHeight="1">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>三極眞空管に依る衰滅振動の發生に就いて</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/44/434/44_434_860/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>1924年</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>44 巻, 434 号, 860-886</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1924年</t>
+        </is>
+      </c>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I93" s="7" t="inlineStr">
+        <is>
+          <t>三極眞空管を用ひて永續振動を發生する場合に、陽極回路が誘導体を含む時は、その一周期間に一度或は二度衰滅振動が發生する。然し永續振動の周波數が低い時は後者の發生は不可能である。この現象は三極眞空管内の熱電子電導が整流作用を行ふ事に起因するのであつて、陽極と線條間の靜電的容量と陽極回路の誘導体とが振動回路の一部を形成する。而して衰滅振動の周波數は大体此等の定數に依て定まる。 かゝる現象の發生の理由及び其特性の解説の目的で、まづ簡單な回路の考察から始める。最初整流器を含む交流回路中に發生する衰滅振動を論じ、次に三極眞空管の陽極には直流電壓を與へ補極には低周波(50～)或は高周波(1萬～程度)の交番電壓を與へて、三極眞空管を増幅作用をなす場合に發生する振動電流に關して、周波數の關係、衰滅振動發生可能の條件等を考察し、最後に發振器としての三極眞空管が發生する衰滅振動が前の場合の一ツの特殊の變形であるとして論及してをる。 專ら實驗的研究を主とした。衰滅振動を發生する場合は其の一ツ一ツが蓄電器の振動的充電或は放電の瞬時現象であつて、精細な理論的説明は不可能であるが、簡單な數式的解法を試みてその特性の大綱を示すに止めた。低周波の實驗には主にオツシログラフを用ひたが、高周波の塲合にはBraun管オツシログラフを用ひ、衰滅振動電流はそのcyclic current diagramから周波數或は衰滅係數等の測定をなした。 此の報告は次の項目に分つ。 I. 緒言 II. 整流器に結ばれた振動回路中に發生する衰滅振動 III. 増幅器としての三極眞空管の陽極に結ばれた振動回路中に發生する衰滅振動 IV. 發振器としての三極眞空管に依る衰滅振動 V. 結論</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="100" customHeight="1">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>套管結合に關する實驗二三</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/54/551/54_551_529/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
+          <t>1934年</t>
+        </is>
+      </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>54 巻, 551 号, 529-532</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1934/06/10</t>
+        </is>
+      </c>
+      <c r="H94" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I94" s="7" t="inlineStr">
+        <is>
+          <t>前報告(1)に引き續き行つた實驗結果を述べてある。先づ振動棒と振動筒を境する誘電體が套管結合振動に如何に影響するかを調べ.空氣を誘電體とする場合と比較した。其の結果"Sleeve"に對する振動姿態の急變は略誘電體の"Partial resonance"に依る事を確めた。更に之等の套管結合を極超短波送波空中線並に饋電線に用ひた場合に就いて調べてある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="100" customHeight="1">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>振動が電氣機械器具に及ぼす影響に就て</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/ieejjournal1888/51/510/51_510_54/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">電氣學會雜誌 </t>
+        </is>
+      </c>
+      <c r="E95" s="5" t="inlineStr">
+        <is>
+          <t>1931年</t>
+        </is>
+      </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>51 巻, 510 号, 54-60</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1931/01/10</t>
+        </is>
+      </c>
+      <c r="H95" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/11/20</t>
+        </is>
+      </c>
+      <c r="I95" s="7" t="inlineStr">
+        <is>
+          <t>本文は昭和五年十月七日電氣學會中國支部に於ける講演の抄録である。振動の二三の型に就て其の概要を述べ是等が電氣機械器具に如何なる影響を與へるか,又是等振動に對して如何なる對策に仍る可きかを述べた。主として陸上用電氣機器に於ける振動に極限し,高速艦船運轉中の振動及び其の影響等に就ては觸れなかつた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="100" customHeight="1">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>表面の格子振動(&lt;特集&gt;表面物性 I. 表面界面の諸問題)</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/butsuri1946/37/2/37_2_92/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本物理学会誌 </t>
+        </is>
+      </c>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t>1982年</t>
+        </is>
+      </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>37 巻, 2 号, 92-99</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1982/02/05</t>
+        </is>
+      </c>
+      <c r="H96" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/04/14</t>
+        </is>
+      </c>
+      <c r="I96" s="7" t="inlineStr">
+        <is>
+          <t>固体表面の格子振動に関して簡単な歴史的概観を試みる. そして最近の実験によって表面格子振動がどのように捉えられるかに触れ, 表面物理学で今後重要となるかも知れない表面格子振動の役割について述べる. 表面格子振動を取扱う簡単な方法として, セルフ・コンシステント・アインシュタイン模型を紹介し, その応用例を挙げる.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="100" customHeight="1">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>シャトルケースとphyphoxによる音の実験</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/apej/191/0/191_15/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">物理教育通信 </t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>2023年</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>191 巻, 15-22</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2023年</t>
+        </is>
+      </c>
+      <c r="H97" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2023/05/12</t>
+        </is>
+      </c>
+      <c r="I97" s="7" t="inlineStr">
+        <is>
+          <t>筒の前で手をたたくと管の中に定常波ができ一定の振動数の音が発生する。発生する振動数を予想し、管の前で手をたたき振動数を測定、分析する生徒実験を行った。測定装置にphyphoxを用いた。FFTが入っているので振動数がすぐわかる。50分の授業の中でも無理なく繰り返し実験することができ、定常波の理解が深まったのではないかと感じている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="100" customHeight="1">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>097</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>圧電縦効果縦振動子のハイパワー特性</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/jasj/77/10/77_643/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本音響学会誌 </t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>77 巻, 10 号, 643-649</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2021/10/01</t>
+        </is>
+      </c>
+      <c r="H98" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2021/11/01</t>
+        </is>
+      </c>
+      <c r="I98" s="7" t="inlineStr">
+        <is>
+          <t>圧電縦効果で駆動される振動子の振動レベル特性が横効果振動子との比較で論じられた。振動子材料にはハード系PZTセラミックスが使用され，測定には電気的過渡応答法が用いられた。振動レベルの増大と共に共振周波数frと機械的品質係数Qmは減少し振動パワー損失密度Pdは増大した。振動レベルを振動速度で表示した場合，縦効果振動子の諸特性の変動率は横効果振動子との比較で小さいことが明らかにされた。ハイパワー特性として重視されるPdに関して比較すれば，例えば振動速度1m/sという高振動レベルにおいて，縦効果振動子は横効果振動子の約52%であった。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="100" customHeight="1">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>振動刺激は多様かつ広汎な疼痛抑制効果をもたらす</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2012/0/2012_48101212/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>2012 巻, A-O-02</t>
+        </is>
+      </c>
+      <c r="G99" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2013年</t>
+        </is>
+      </c>
+      <c r="H99" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2013/06/20</t>
+        </is>
+      </c>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t>【はじめに、目的】振動刺激は，主に筋緊張（Desmedt，1978）や痙縮（Matsumoto，2008）の抑制効果を目的とし臨床で利用されている物理療法の一種である。また，リラクセーション効果や鎮痛効果を謳った家庭用医療機器としても使用されている。しかし，振動刺激による疼痛抑制効果やその機序は明らかにされていない。これまでわれわれは，振動刺激による疼痛抑制効果に関して，低周波数振動刺激による局所の機械痛覚抑制の可能性について報告した（冨澤，2012）。振動刺激以外の鍼・熱刺激などでは広汎性侵害抑制調節（diffuse noxious inhibitory controls: DNIC）や下行性疼痛抑制系などの中枢性疼痛制御メカニズムを介した広汎性の疼痛抑制効果についての報告がなされている。しかし，振動刺激による広汎性の疼痛抑制効果については検討されていない。また，振動刺激による疼痛抑制効果を機械痛覚以外で検討した報告がなく，機械痛覚以外に痛覚抑制効果を有するかどうかは不明である。そこで本研究は，振動刺激による刺激同側および対側の機械痛覚または熱痛覚への影響を調べ，振動刺激による多様かつ広汎な疼痛抑制効果を検討した。【方法】対象は健常若年者62 名（男性30 名，女性32 名，平均年齢20.8 ± 0.7 歳）とし，右前腕に振動刺激を行う群（振動群：36 名）と行わない群（sham群：26 名）に無作為に振り分けた。振動群は，低周波数振動刺激装置（周波数8.5Hz，振幅5mm，HM-162，オムロン）を用いて右前腕に10 分間振動刺激を加え，sham群は，振動群と同部位に振動刺激装置の端子を当てるのみとした。両群とも刺激前後10 分間を安静とした。測定項目は，圧痛強度（pressure pain intensity: PPI）と熱痛覚強度（heat pain intensity: HPI）とし，刺激前，中，終了直後，10 分後に測定した。PPIは，デジタルプッシュプルゲージ（RX-20，AIKOH）を用いて，振動刺激部および対側の同部に，事前に調べた各個人の最大強度の80％で加圧した時の疼痛の程度を視覚的アナログスケール（visual analogue scale: VAS，0〜100mm）で測定した。HPIは，温冷型痛覚計（UDH-300，ユニークメディカル）を用いて，刺激部および対側の同部に，事前に調べた各個人の最大強度の90％で加熱した時の疼痛の程度をVASで測定した。なお，PPIとHPIの測定順は無作為とし，それぞれ別日同時間帯にあらためて実験を行い測定した。統計学的解析は，PPI，HPIの経時的変化の検討についてFriedman検定およびTukey-typeで多重比較検定を，振動群とsham群の比較にはMann-WhitneyのU検定を用い，有意水準を5％とした。【倫理的配慮、説明と同意】本研究は，日本福祉大学「人を対象とする研究」に関する倫理審査委員会の承認を得て実施した。対象者に研究内容，安全対策，個人情報保護対策，研究への同意と撤回について説明し，同意を得たうえで実験を行った。また，実験に際しては安全対策を徹底し，実験データを含めた個人情報保護に努めた。【結果】PPIは刺激前と比較すると，振動群の刺激同側において刺激終了直後，10 分後に有意に低下し，さらに刺激対側においても刺激終了直後に有意に低下した。また，HPIは刺激前と比較すると，振動群の刺激同側および対側において刺激終了直後に有意に低下した。なお，sham群ではPPI，HPIともに変化は認められなかった。振動群とsham群の比較については，刺激同側のPPIにおいて，振動群はsham群に比べ刺激終了直後に有意に低値を示した。また，刺激同側のHPIにおいて，振動群はsham群に比べ刺激終了直後，10 分後に有意に低値を示した。【考察】振動刺激を片側前腕に加え，両側の機械痛覚または熱痛覚に及ぼす影響を検討した結果，両側のPPI，HPIともに刺激終了直後に低下したことから，機械痛覚および熱痛覚ともに抑制が認められた。よって，振動刺激は多様な痛覚受容器に影響を及ぼすことが示唆された。また，刺激同側のみならず対側にも同様の効果が認められたことから，振動刺激はDNICや下行性疼痛抑制系のような何らかの中枢神経系を介した広汎な疼痛抑制効果をもたらす可能性が示唆された。さらに，機械痛覚においては，刺激終了10 分後にも抑制効果が持続していたことから，振動刺激による疼痛抑制の持続効果の可能性が示された。【理学療法学研究としての意義】本研究は，振動刺激による多様かつ広汎な疼痛抑制効果を明らかにし，さらに疼痛抑制の持続効果の可能性をも見出した点で意義深い。本研究結果より，振動刺激は，臨床において疼痛管理に幅広く応用しうるものと期待できる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="100" customHeight="1">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>経穴への振動刺激による疼痛抑制効果の検討</t>
+        </is>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/cjpt/2011/0/2011_Aa0879/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学療法学Supplement </t>
+        </is>
+      </c>
+      <c r="E100" s="5" t="inlineStr">
+        <is>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>2011 巻</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 2012年</t>
+        </is>
+      </c>
+      <c r="H100" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2012/08/10</t>
+        </is>
+      </c>
+      <c r="I100" s="7" t="inlineStr">
+        <is>
+          <t>【はじめに、目的】　従来，理学療法分野において振動刺激は筋スパズムの軽減や末梢血液循環の改善などを目的に利用されてきた物理的刺激の一種である。また，振動刺激を用いてリラクセーション効果や鎮痛効果を謳ったマッサージ機器が一般に市販されている。しかし，これらの振動刺激による疼痛抑制効果ならびに振動周波数など刺激様式による効果の違いについては，ほとんど検証されていない。一方，東洋医学では，経穴への鍼や指圧などの物理的刺激が広汎性に鎮痛効果をもたらすことが古くから知られており，その疼痛抑制機序に内因性オピオイド系（Mayer DJ, 1977），下行性疼痛抑制系（Haung C, 2004; Kim JH, 2004），ストレス鎮痛（Bossut DF, 1991）などが関与することが示唆されている。しかし，経穴への振動刺激による鎮痛効果については未だ調べられていない。そこで本研究では，経穴への異なる周波数の振動刺激が痛覚閾値に及ぼす影響を検討した。【方法】　対象は健常成人46 名（男性26名，女性20名，平均年齢20.0±1.1歳）とし，室温25±1℃に設定された実験室内でベッド上背臥位とした。振動刺激は，対象の右前腕にある経穴手三里（肘関節外側の3横指下方に位置し，頚肩腕症状の特効穴）に，低周波数振動器（HM-162，オムロン）を用いて周波数8.5 Hz，振幅5 mmの低周波数振動刺激（低周波数群），または高周波数振動器（YCM-721，山善）を用いて周波数114.8 Hz，振幅2 mmの高周波数振動刺激（高周波数群）を10分間与え，sham群は振動端子を当てるのみとし，刺激前後10分間を安静とした。圧痛閾値（P-VAS）は，刺激前，中，直後，10 分後に，プッシュプルゲージ（RX-20，AIKOH）を用いて，事前に調べた各個人の最大耐力の80％強度で両側手三里に加圧した時の疼痛強度を視覚的アナログスケール（VAS）で測定した。なお，統計学的解析は，各群の経時的変化についてFriedman testおよびTukey typeを用いた多重比較検定を，P-VASの群間比較についてKruskal-Wallis testおよび Dunn’s testを用いた多重比較検定を行い，有意水準を5％未満とした。【倫理的配慮、説明と同意】　本研究は全対象に対して研究内容，安全対策，個人情報保護対策，研究への同意と撤回について十分に説明し，同意を得た上で行なった。実験は安全対策の履行ならびに個人情報の保護に努めて行った。【結果】　低周波数群，高周波数群ともに，刺激側P-VASは刺激直後に有意に低下した。両振動刺激群の刺激対側及びsham群ではP-VASの変化は認められなかった。また，P-VASの各群間比較においても有意な差は認められなかった。【考察】　今回の振動刺激では刺激側にのみ疼痛抑制効果を認められた。振動刺激は振動受容器へ入力され，刺激部近傍の機械的侵害受容器の脱感作，圧痛閾値の低下を惹起したことから，振動刺激による異なる受容器を介した疼痛抑制機序には中枢神経系の関与が示唆される。しかしながら，従来，東洋医学においては，経穴への物理的刺激が中枢神経系の鎮痛機序を介して広汎性に疼痛を抑制するといわれている一方で，今回の振動刺激による鎮痛は局所的な効果にとどまったため，従来の東洋医学的な物理的刺激とは異なる振動性の鎮痛機序を介する可能性が示唆された。また，今回の8.5 Hzと114.8 Hzの両周波数の振動刺激では，同様の疼痛抑制効果が刺激を開始し10分経過後に認められた。従来，振動周波数0～40 Hzは遅順応型受容器のMerkel触盤で受容する一方，200～250 Hzは速順応型受容器のPacini小体の受容周波数帯とされており，その間の周波数帯については明らかでない。しかしながら，本研究で用いた振動の両周波数ともに遅順応性に同等の効果を示したことから，0～115 Hzの振動周波数もMerkel触盤の受容周波数帯に含まれる可能性が考えられる。以上のことから，振動刺激は中枢性鎮痛機序を介して疼痛を抑制し，刺激周波数や刺激部位によって疼痛抑制効果に違いがあることが示唆された。【理学療法学研究としての意義】　鎮痛効果を十分に検証されないまま鎮痛を目的として使用されてきた振動刺激の生理学的な疼痛抑制機序を検証し，振動の有効周波数および振動受容器特性を明らかにできたことは非常に独創的な研究成果である。さらに近年その鎮痛効果が高く評価されている経穴に対して振動刺激により疼痛抑制効果が得られたことから，理学療法の臨床，学術研究において振動刺激が幅広く応用できうることを示した点で本研究は非常に意義深い。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="100" customHeight="1">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>ヤギにおける輸送シミュレーション負荷が血中カテコールアミン,コルチゾール,グルコース濃度および好酸球数に及ぼす影響</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>https://www.jstage.jst.go.jp/article/chikusan1924/66/10/66_10_841/_article/-char/ja</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">日本畜産学会報 </t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>1995年</t>
+        </is>
+      </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>66 巻, 10 号, 841-848</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr">
+        <is>
+          <t>発行日: 1995/10/25</t>
+        </is>
+      </c>
+      <c r="H101" s="5" t="inlineStr">
+        <is>
+          <t>公開日: 2008/03/10</t>
+        </is>
+      </c>
+      <c r="I101" s="7" t="inlineStr">
+        <is>
+          <t>成雄トカラヤギを供試して輸送シミュレーション負荷後の血中カテコールアミン,コルチゾール,グルコースおよび好酸球数の変動を明らかにした.ブランコ振動による輸送ミュレーションでは,ケージに入れたまま不規則な振動と規則的な振動を組み合わせた1セット15分間の負荷を6回繰り返した(90分間).採血はヤギの頚静脈あるいは大腿静脈に装着した残置カテーテルより行なった.ブランコ振動中,ヤギは落ち着きがなく,やや興奮した状態であった.ブランコ振動開始30分後,血漿中エピネフリン,ノルエピネフリン,コルチゾールおよびグルコース濃度は振動開始前の値の2倍に上昇し,ノルエピネフリンを除きそれらの値はブランコ振動終了時にピークを示したが,その後は次第に低下る傾向を示し,振動開始前の値に戻った.好酸球数はブランコ振動開始直後に減少し,振動終了1時間半後に最小値を示したが,振動終了10時間半後には振動開始前の値に戻った.本研究の結果は,輸送シミュレーション負荷が交感神経系を刺激するとともに,副腎皮質および髄質を同時に賦活化し,糖質代謝や免疫機能などの生理的変化をもたらすことを示している.また,上述の生理諸元の変動は実際の輸送実験の結果と定性的に一致しており,ブランコ振動が輸送モデルとなり得るものと考えられる.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
